--- a/database/industries/darou/derazak/product/monthly.xlsx
+++ b/database/industries/darou/derazak/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="82">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3317,100 +3317,100 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>24000</v>
+        <v>25800</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>25800</v>
+        <v>100400</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>100400</v>
+        <v>120940</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>120940</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>5600</v>
+        <v>15550</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>15550</v>
+        <v>42660</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>42660</v>
+        <v>5400</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>5400</v>
+        <v>33420</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>33420</v>
+        <v>212050</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>212050</v>
+        <v>32000</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>32000</v>
+        <v>77930</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>77930</v>
+        <v>29000</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>29000</v>
+        <v>4000</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>4000</v>
+        <v>103250</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>103250</v>
+        <v>71600</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>71600</v>
+        <v>3600</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>3600</v>
+        <v>33100</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>33100</v>
+        <v>0</v>
       </c>
       <c r="X11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>50000</v>
+        <v>103800</v>
       </c>
       <c r="AA11" s="12" t="n">
         <v>103800</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>103800</v>
+        <v>81600</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>81600</v>
+        <v>5400</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>0</v>
+        <v>83300</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>102400</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>0</v>
+        <v>69300</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>69300</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="12" t="n">
         <v>0</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,151 +3476,151 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>543513</v>
+        <v>480687</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>480687</v>
+        <v>397789</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>397789</v>
+        <v>716664</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>716664</v>
+        <v>596417</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>596417</v>
+        <v>589103</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>589103</v>
+        <v>259231</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>259231</v>
+        <v>492160</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>492160</v>
+        <v>531135</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>531135</v>
+        <v>548578</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>548578</v>
+        <v>578235</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>578235</v>
+        <v>691687</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>691687</v>
+        <v>750904</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>750904</v>
+        <v>433485</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>433485</v>
+        <v>303027</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>303027</v>
+        <v>878890</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>878890</v>
+        <v>517173</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>517173</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>0</v>
+        <v>430296</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>430296</v>
+        <v>518175</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>518175</v>
+        <v>622430</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>622430</v>
+        <v>855973</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>855973</v>
+        <v>683494</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>683494</v>
+        <v>990535</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>990535</v>
+        <v>303373</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>303373</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>0</v>
+        <v>724832</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>724832</v>
+        <v>467919</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>467919</v>
+        <v>346833</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>346833</v>
+        <v>265419</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>265419</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>0</v>
+        <v>344097</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>344097</v>
+        <v>693972</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>693972</v>
+        <v>826466</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>826466</v>
+        <v>995468</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>995468</v>
+        <v>787922</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>787922</v>
+        <v>442418</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>442418</v>
+        <v>261778</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>261778</v>
+        <v>530558</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>530558</v>
+        <v>777078</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>777078</v>
+        <v>660750</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>660750</v>
+        <v>806368</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>806368</v>
+        <v>741057</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>741057</v>
+        <v>752684</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>752684</v>
+        <v>782330</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>782330</v>
+        <v>852123</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>852123</v>
+        <v>803299</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>803299</v>
+        <v>77983</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>77983</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="14" t="n">
         <v>0</v>
@@ -3635,154 +3635,154 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="n">
-        <v>282443</v>
+        <v>141616</v>
       </c>
       <c r="F13" s="15" t="n">
-        <v>141616</v>
+        <v>148674</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>148674</v>
+        <v>315256</v>
       </c>
       <c r="H13" s="15" t="n">
-        <v>315256</v>
+        <v>295531</v>
       </c>
       <c r="I13" s="15" t="n">
-        <v>295531</v>
+        <v>408654</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>408654</v>
+        <v>210807</v>
       </c>
       <c r="K13" s="15" t="n">
-        <v>210807</v>
+        <v>360725</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>360725</v>
+        <v>344497</v>
       </c>
       <c r="M13" s="15" t="n">
-        <v>344497</v>
+        <v>249588</v>
       </c>
       <c r="N13" s="15" t="n">
-        <v>249588</v>
+        <v>340773</v>
       </c>
       <c r="O13" s="15" t="n">
-        <v>340773</v>
+        <v>294503</v>
       </c>
       <c r="P13" s="15" t="n">
-        <v>294503</v>
+        <v>250366</v>
       </c>
       <c r="Q13" s="15" t="n">
-        <v>250366</v>
+        <v>85434</v>
       </c>
       <c r="R13" s="15" t="n">
-        <v>85434</v>
+        <v>157908</v>
       </c>
       <c r="S13" s="15" t="n">
-        <v>157908</v>
+        <v>421354</v>
       </c>
       <c r="T13" s="15" t="n">
-        <v>421354</v>
+        <v>256065</v>
       </c>
       <c r="U13" s="15" t="n">
-        <v>256065</v>
+        <v>211830</v>
       </c>
       <c r="V13" s="15" t="n">
-        <v>211830</v>
+        <v>107581</v>
       </c>
       <c r="W13" s="15" t="n">
-        <v>107581</v>
+        <v>367839</v>
       </c>
       <c r="X13" s="15" t="n">
-        <v>367839</v>
+        <v>317721</v>
       </c>
       <c r="Y13" s="15" t="n">
-        <v>317721</v>
+        <v>207955</v>
       </c>
       <c r="Z13" s="15" t="n">
-        <v>207955</v>
+        <v>156893</v>
       </c>
       <c r="AA13" s="15" t="n">
-        <v>156893</v>
+        <v>180494</v>
       </c>
       <c r="AB13" s="15" t="n">
-        <v>180494</v>
+        <v>200086</v>
       </c>
       <c r="AC13" s="15" t="n">
-        <v>200086</v>
+        <v>124033</v>
       </c>
       <c r="AD13" s="15" t="n">
-        <v>124033</v>
+        <v>499970</v>
       </c>
       <c r="AE13" s="15" t="n">
-        <v>499970</v>
+        <v>263943</v>
       </c>
       <c r="AF13" s="15" t="n">
-        <v>263943</v>
+        <v>417022</v>
       </c>
       <c r="AG13" s="15" t="n">
-        <v>417022</v>
+        <v>414802</v>
       </c>
       <c r="AH13" s="15" t="n">
-        <v>414802</v>
+        <v>374661</v>
       </c>
       <c r="AI13" s="15" t="n">
-        <v>374661</v>
+        <v>448605</v>
       </c>
       <c r="AJ13" s="15" t="n">
-        <v>448605</v>
+        <v>603510</v>
       </c>
       <c r="AK13" s="15" t="n">
-        <v>603510</v>
+        <v>492988</v>
       </c>
       <c r="AL13" s="15" t="n">
-        <v>492988</v>
+        <v>491125</v>
       </c>
       <c r="AM13" s="15" t="n">
-        <v>491125</v>
+        <v>565295</v>
       </c>
       <c r="AN13" s="15" t="n">
-        <v>565295</v>
+        <v>599031</v>
       </c>
       <c r="AO13" s="15" t="n">
-        <v>599031</v>
+        <v>480711</v>
       </c>
       <c r="AP13" s="15" t="n">
-        <v>480711</v>
+        <v>151022</v>
       </c>
       <c r="AQ13" s="15" t="n">
-        <v>151022</v>
+        <v>439006</v>
       </c>
       <c r="AR13" s="15" t="n">
-        <v>439006</v>
+        <v>311191</v>
       </c>
       <c r="AS13" s="15" t="n">
-        <v>311191</v>
+        <v>464615</v>
       </c>
       <c r="AT13" s="15" t="n">
-        <v>464615</v>
+        <v>422235</v>
       </c>
       <c r="AU13" s="15" t="n">
-        <v>422235</v>
+        <v>336144</v>
       </c>
       <c r="AV13" s="15" t="n">
-        <v>336144</v>
+        <v>325566</v>
       </c>
       <c r="AW13" s="15" t="n">
-        <v>325566</v>
+        <v>330447</v>
       </c>
       <c r="AX13" s="15" t="n">
-        <v>330447</v>
+        <v>406161</v>
       </c>
       <c r="AY13" s="15" t="n">
-        <v>406161</v>
+        <v>642575</v>
       </c>
       <c r="AZ13" s="15" t="n">
-        <v>642575</v>
+        <v>638823</v>
       </c>
       <c r="BA13" s="15" t="n">
-        <v>638823</v>
+        <v>247979</v>
       </c>
       <c r="BB13" s="15" t="n">
-        <v>247979</v>
+        <v>147485</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,154 +3794,154 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>1113614</v>
+        <v>524285</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>524285</v>
+        <v>648221</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>648221</v>
+        <v>1255295</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>1255295</v>
+        <v>1483532</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>1483532</v>
+        <v>1515524</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>1515524</v>
+        <v>1034792</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>1034792</v>
+        <v>1490282</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1490282</v>
+        <v>1448979</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1448979</v>
+        <v>1031812</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>1031812</v>
+        <v>1088637</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>1088637</v>
+        <v>1367627</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>1367627</v>
+        <v>1437511</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>1437511</v>
+        <v>1210426</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>1210426</v>
+        <v>1171111</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>1171111</v>
+        <v>1553048</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1553048</v>
+        <v>1778809</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>1778809</v>
+        <v>1722065</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1722065</v>
+        <v>1583024</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1583024</v>
+        <v>1504975</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>1504975</v>
+        <v>2014367</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>2014367</v>
+        <v>1796944</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1796944</v>
+        <v>1813563</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1813563</v>
+        <v>1404165</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1404165</v>
+        <v>1921960</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>1921960</v>
+        <v>1478436</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>1478436</v>
+        <v>2395460</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2395460</v>
+        <v>1689384</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1689384</v>
+        <v>2113953</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>2113953</v>
+        <v>1907404</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>1907404</v>
+        <v>1560311</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1560311</v>
+        <v>2001865</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>2001865</v>
+        <v>2396831</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>2396831</v>
+        <v>2504869</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>2504869</v>
+        <v>2515782</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>2515782</v>
+        <v>2490036</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>2490036</v>
+        <v>1991516</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>1991516</v>
+        <v>642438</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>642438</v>
+        <v>979243</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>979243</v>
+        <v>1392765</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>1392765</v>
+        <v>2010919</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>2010919</v>
+        <v>2195072</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>2195072</v>
+        <v>2271131</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>2271131</v>
+        <v>2455124</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>2455124</v>
+        <v>2498962</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>2498962</v>
+        <v>2504181</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>2504181</v>
+        <v>2404916</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>2404916</v>
+        <v>2498194</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>2498194</v>
+        <v>2520151</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>2520151</v>
+        <v>1457170</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>1457170</v>
+        <v>1158865</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,154 +3953,154 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="n">
-        <v>689304</v>
+        <v>414912</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>414912</v>
+        <v>368256</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>368256</v>
+        <v>781752</v>
       </c>
       <c r="H15" s="15" t="n">
-        <v>781752</v>
+        <v>526488</v>
       </c>
       <c r="I15" s="15" t="n">
-        <v>526488</v>
+        <v>795912</v>
       </c>
       <c r="J15" s="15" t="n">
-        <v>795912</v>
+        <v>708113</v>
       </c>
       <c r="K15" s="15" t="n">
-        <v>708113</v>
+        <v>570623</v>
       </c>
       <c r="L15" s="15" t="n">
-        <v>570623</v>
+        <v>853558</v>
       </c>
       <c r="M15" s="15" t="n">
-        <v>853558</v>
+        <v>794232</v>
       </c>
       <c r="N15" s="15" t="n">
-        <v>794232</v>
+        <v>888996</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>888996</v>
+        <v>799914</v>
       </c>
       <c r="P15" s="15" t="n">
-        <v>799914</v>
+        <v>1078302</v>
       </c>
       <c r="Q15" s="15" t="n">
-        <v>1078302</v>
+        <v>1248530</v>
       </c>
       <c r="R15" s="15" t="n">
-        <v>1248530</v>
+        <v>617414</v>
       </c>
       <c r="S15" s="15" t="n">
-        <v>617414</v>
+        <v>1069505</v>
       </c>
       <c r="T15" s="15" t="n">
-        <v>1069505</v>
+        <v>1273837</v>
       </c>
       <c r="U15" s="15" t="n">
-        <v>1273837</v>
+        <v>743721</v>
       </c>
       <c r="V15" s="15" t="n">
-        <v>743721</v>
+        <v>493753</v>
       </c>
       <c r="W15" s="15" t="n">
-        <v>493753</v>
+        <v>238109</v>
       </c>
       <c r="X15" s="15" t="n">
-        <v>238109</v>
+        <v>669017</v>
       </c>
       <c r="Y15" s="15" t="n">
-        <v>669017</v>
+        <v>748789</v>
       </c>
       <c r="Z15" s="15" t="n">
-        <v>748789</v>
+        <v>935541</v>
       </c>
       <c r="AA15" s="15" t="n">
-        <v>935541</v>
+        <v>1108191</v>
       </c>
       <c r="AB15" s="15" t="n">
-        <v>1108191</v>
+        <v>303373</v>
       </c>
       <c r="AC15" s="15" t="n">
-        <v>303373</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" s="15" t="n">
-        <v>0</v>
+        <v>427345</v>
       </c>
       <c r="AF15" s="15" t="n">
-        <v>427345</v>
+        <v>538363</v>
       </c>
       <c r="AG15" s="15" t="n">
-        <v>538363</v>
+        <v>324266</v>
       </c>
       <c r="AH15" s="15" t="n">
-        <v>324266</v>
+        <v>396104</v>
       </c>
       <c r="AI15" s="15" t="n">
-        <v>396104</v>
+        <v>451877</v>
       </c>
       <c r="AJ15" s="15" t="n">
-        <v>451877</v>
+        <v>541861</v>
       </c>
       <c r="AK15" s="15" t="n">
-        <v>541861</v>
+        <v>818963</v>
       </c>
       <c r="AL15" s="15" t="n">
-        <v>818963</v>
+        <v>855741</v>
       </c>
       <c r="AM15" s="15" t="n">
-        <v>855741</v>
+        <v>603288</v>
       </c>
       <c r="AN15" s="15" t="n">
-        <v>603288</v>
+        <v>371419</v>
       </c>
       <c r="AO15" s="15" t="n">
-        <v>371419</v>
+        <v>341145</v>
       </c>
       <c r="AP15" s="15" t="n">
-        <v>341145</v>
+        <v>327735</v>
       </c>
       <c r="AQ15" s="15" t="n">
-        <v>327735</v>
+        <v>435388</v>
       </c>
       <c r="AR15" s="15" t="n">
-        <v>435388</v>
+        <v>397645</v>
       </c>
       <c r="AS15" s="15" t="n">
-        <v>397645</v>
+        <v>583505</v>
       </c>
       <c r="AT15" s="15" t="n">
-        <v>583505</v>
+        <v>769844</v>
       </c>
       <c r="AU15" s="15" t="n">
-        <v>769844</v>
+        <v>846840</v>
       </c>
       <c r="AV15" s="15" t="n">
-        <v>846840</v>
+        <v>776618</v>
       </c>
       <c r="AW15" s="15" t="n">
-        <v>776618</v>
+        <v>835259</v>
       </c>
       <c r="AX15" s="15" t="n">
-        <v>835259</v>
+        <v>668275</v>
       </c>
       <c r="AY15" s="15" t="n">
-        <v>668275</v>
+        <v>726759</v>
       </c>
       <c r="AZ15" s="15" t="n">
-        <v>726759</v>
+        <v>501051</v>
       </c>
       <c r="BA15" s="15" t="n">
-        <v>501051</v>
+        <v>682419</v>
       </c>
       <c r="BB15" s="15" t="n">
-        <v>682419</v>
+        <v>393377</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,154 +4112,154 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>316332</v>
+        <v>327600</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>327600</v>
+        <v>883145</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>883145</v>
+        <v>336713</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>336713</v>
+        <v>558271</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>558271</v>
+        <v>919832</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>919832</v>
+        <v>518846</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>518846</v>
+        <v>366088</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>366088</v>
+        <v>458339</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>458339</v>
+        <v>482562</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>482562</v>
+        <v>538856</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>538856</v>
+        <v>769507</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>769507</v>
+        <v>579018</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>579018</v>
+        <v>252045</v>
       </c>
       <c r="R16" s="16" t="n">
-        <v>252045</v>
+        <v>343090</v>
       </c>
       <c r="S16" s="16" t="n">
-        <v>343090</v>
+        <v>355990</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>355990</v>
+        <v>302211</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>302211</v>
+        <v>402749</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>402749</v>
+        <v>647702</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>647702</v>
+        <v>990526</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>990526</v>
+        <v>397238</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>397238</v>
+        <v>593065</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>593065</v>
+        <v>527965</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>527965</v>
+        <v>1063519</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>1063519</v>
+        <v>502985</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>502985</v>
+        <v>555864</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>555864</v>
+        <v>619002</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>619002</v>
+        <v>1075270</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>1075270</v>
+        <v>738650</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>738650</v>
+        <v>895456</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>895456</v>
+        <v>482896</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>482896</v>
+        <v>681862</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>681862</v>
+        <v>721862</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>721862</v>
+        <v>368485</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>368485</v>
+        <v>134750</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>134750</v>
+        <v>137460</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>137460</v>
+        <v>200000</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>200000</v>
+        <v>490175</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>490175</v>
+        <v>301401</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>301401</v>
+        <v>535125</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>535125</v>
+        <v>510278</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>510278</v>
+        <v>511751</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>511751</v>
+        <v>596105</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>596105</v>
+        <v>453771</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>453771</v>
+        <v>278182</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>278182</v>
+        <v>114665</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>114665</v>
+        <v>504782</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>504782</v>
+        <v>60913</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>60913</v>
+        <v>184000</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>184000</v>
+        <v>361759</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>361759</v>
+        <v>169531</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,8 +4370,8 @@
       <c r="S18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="20" t="s">
-        <v>66</v>
+      <c r="T18" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U18" s="20" t="n">
         <v>0</v>
@@ -4483,154 +4483,154 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="n">
-        <v>2969206</v>
+        <v>1914900</v>
       </c>
       <c r="F19" s="22" t="n">
-        <v>1914900</v>
+        <v>2546485</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>2546485</v>
+        <v>3526620</v>
       </c>
       <c r="H19" s="22" t="n">
-        <v>3526620</v>
+        <v>3462239</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>3462239</v>
+        <v>4234625</v>
       </c>
       <c r="J19" s="22" t="n">
-        <v>4234625</v>
+        <v>2747339</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>2747339</v>
+        <v>3322538</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>3322538</v>
+        <v>3641908</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>3641908</v>
+        <v>3140192</v>
       </c>
       <c r="N19" s="22" t="n">
-        <v>3140192</v>
+        <v>3647547</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>3647547</v>
+        <v>3955238</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>3955238</v>
+        <v>4174031</v>
       </c>
       <c r="Q19" s="22" t="n">
-        <v>4174031</v>
+        <v>3258920</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>3258920</v>
+        <v>2596550</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>2596550</v>
+        <v>4382037</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>4382037</v>
+        <v>4199695</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>4199695</v>
+        <v>3083965</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>3083965</v>
+        <v>3295456</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>3295456</v>
+        <v>3619624</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>3619624</v>
+        <v>4020773</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>4020773</v>
+        <v>4252726</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>4252726</v>
+        <v>4221256</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>4221256</v>
+        <v>4850704</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>4850704</v>
+        <v>3313377</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>3313377</v>
+        <v>2163733</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>2163733</v>
+        <v>3514432</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>3514432</v>
+        <v>4264074</v>
       </c>
       <c r="AF19" s="22" t="n">
-        <v>4264074</v>
+        <v>4275907</v>
       </c>
       <c r="AG19" s="22" t="n">
-        <v>4275907</v>
+        <v>3991161</v>
       </c>
       <c r="AH19" s="22" t="n">
-        <v>3991161</v>
+        <v>3079391</v>
       </c>
       <c r="AI19" s="22" t="n">
-        <v>3079391</v>
+        <v>3653509</v>
       </c>
       <c r="AJ19" s="22" t="n">
-        <v>3653509</v>
+        <v>4608161</v>
       </c>
       <c r="AK19" s="22" t="n">
-        <v>4608161</v>
+        <v>4879277</v>
       </c>
       <c r="AL19" s="22" t="n">
-        <v>4879277</v>
+        <v>4823864</v>
       </c>
       <c r="AM19" s="22" t="n">
-        <v>4823864</v>
+        <v>4791547</v>
       </c>
       <c r="AN19" s="22" t="n">
-        <v>4791547</v>
+        <v>3949888</v>
       </c>
       <c r="AO19" s="22" t="n">
-        <v>3949888</v>
+        <v>2396887</v>
       </c>
       <c r="AP19" s="22" t="n">
-        <v>2396887</v>
+        <v>2021179</v>
       </c>
       <c r="AQ19" s="22" t="n">
-        <v>2021179</v>
+        <v>3332842</v>
       </c>
       <c r="AR19" s="22" t="n">
-        <v>3332842</v>
+        <v>4007111</v>
       </c>
       <c r="AS19" s="22" t="n">
-        <v>4007111</v>
+        <v>4415693</v>
       </c>
       <c r="AT19" s="22" t="n">
-        <v>4415693</v>
+        <v>4865683</v>
       </c>
       <c r="AU19" s="22" t="n">
-        <v>4865683</v>
+        <v>4832936</v>
       </c>
       <c r="AV19" s="22" t="n">
-        <v>4832936</v>
+        <v>4632012</v>
       </c>
       <c r="AW19" s="22" t="n">
-        <v>4632012</v>
+        <v>4566882</v>
       </c>
       <c r="AX19" s="22" t="n">
-        <v>4566882</v>
+        <v>4836257</v>
       </c>
       <c r="AY19" s="22" t="n">
-        <v>4836257</v>
+        <v>4731740</v>
       </c>
       <c r="AZ19" s="22" t="n">
-        <v>4731740</v>
+        <v>3922008</v>
       </c>
       <c r="BA19" s="22" t="n">
-        <v>3922008</v>
+        <v>2760927</v>
       </c>
       <c r="BB19" s="22" t="n">
-        <v>2760927</v>
+        <v>1869258</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,106 +5076,106 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="n">
-        <v>41820</v>
+        <v>32950</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>32950</v>
+        <v>22450</v>
       </c>
       <c r="G26" s="15" t="n">
-        <v>22450</v>
+        <v>114100</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>114100</v>
+        <v>35280</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>35280</v>
+        <v>15870</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>15870</v>
+        <v>38500</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>38500</v>
+        <v>48000</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>48000</v>
+        <v>30680</v>
       </c>
       <c r="M26" s="15" t="n">
-        <v>30680</v>
+        <v>12890</v>
       </c>
       <c r="N26" s="15" t="n">
-        <v>12890</v>
+        <v>91440</v>
       </c>
       <c r="O26" s="15" t="n">
-        <v>91440</v>
+        <v>67290</v>
       </c>
       <c r="P26" s="15" t="n">
-        <v>67290</v>
+        <v>64920</v>
       </c>
       <c r="Q26" s="15" t="n">
-        <v>64920</v>
+        <v>52380</v>
       </c>
       <c r="R26" s="15" t="n">
-        <v>52380</v>
+        <v>13000</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>13000</v>
+        <v>74800</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>74800</v>
+        <v>49510</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>49510</v>
+        <v>52360</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>52360</v>
+        <v>108030</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>108030</v>
+        <v>41660</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>41660</v>
+        <v>20100</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>20100</v>
+        <v>45900</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>45900</v>
+        <v>51330</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>51330</v>
+        <v>73400</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>73400</v>
+        <v>87900</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>87900</v>
+        <v>30570</v>
       </c>
       <c r="AD26" s="15" t="n">
-        <v>30570</v>
+        <v>26790</v>
       </c>
       <c r="AE26" s="15" t="n">
-        <v>26790</v>
+        <v>4505</v>
       </c>
       <c r="AF26" s="15" t="n">
-        <v>4505</v>
+        <v>14900</v>
       </c>
       <c r="AG26" s="15" t="n">
-        <v>14900</v>
+        <v>49490</v>
       </c>
       <c r="AH26" s="15" t="n">
-        <v>49490</v>
+        <v>37860</v>
       </c>
       <c r="AI26" s="15" t="n">
-        <v>37860</v>
+        <v>51690</v>
       </c>
       <c r="AJ26" s="15" t="n">
-        <v>51690</v>
+        <v>31040</v>
       </c>
       <c r="AK26" s="15" t="n">
-        <v>31040</v>
+        <v>12690</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>12690</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="15" t="n">
         <v>0</v>
@@ -5220,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,154 +5235,154 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="n">
-        <v>559651</v>
+        <v>314403</v>
       </c>
       <c r="F27" s="16" t="n">
-        <v>314403</v>
+        <v>619261</v>
       </c>
       <c r="G27" s="16" t="n">
-        <v>619261</v>
+        <v>725919</v>
       </c>
       <c r="H27" s="16" t="n">
-        <v>725919</v>
+        <v>667388</v>
       </c>
       <c r="I27" s="16" t="n">
-        <v>667388</v>
+        <v>517725</v>
       </c>
       <c r="J27" s="16" t="n">
-        <v>517725</v>
+        <v>248983</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>248983</v>
+        <v>534443</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>534443</v>
+        <v>518048</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>518048</v>
+        <v>381927</v>
       </c>
       <c r="N27" s="16" t="n">
-        <v>381927</v>
+        <v>703436</v>
       </c>
       <c r="O27" s="16" t="n">
-        <v>703436</v>
+        <v>706826</v>
       </c>
       <c r="P27" s="16" t="n">
-        <v>706826</v>
+        <v>782765</v>
       </c>
       <c r="Q27" s="16" t="n">
-        <v>782765</v>
+        <v>446050</v>
       </c>
       <c r="R27" s="16" t="n">
-        <v>446050</v>
+        <v>471783</v>
       </c>
       <c r="S27" s="16" t="n">
-        <v>471783</v>
+        <v>752223</v>
       </c>
       <c r="T27" s="16" t="n">
-        <v>752223</v>
+        <v>577801</v>
       </c>
       <c r="U27" s="16" t="n">
-        <v>577801</v>
+        <v>51570</v>
       </c>
       <c r="V27" s="16" t="n">
-        <v>51570</v>
+        <v>261740</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>261740</v>
+        <v>518175</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>518175</v>
+        <v>852414</v>
       </c>
       <c r="Y27" s="16" t="n">
-        <v>852414</v>
+        <v>720287</v>
       </c>
       <c r="Z27" s="16" t="n">
-        <v>720287</v>
+        <v>429972</v>
       </c>
       <c r="AA27" s="16" t="n">
-        <v>429972</v>
+        <v>1071810</v>
       </c>
       <c r="AB27" s="16" t="n">
-        <v>1071810</v>
+        <v>795283</v>
       </c>
       <c r="AC27" s="16" t="n">
-        <v>795283</v>
+        <v>140</v>
       </c>
       <c r="AD27" s="16" t="n">
-        <v>140</v>
+        <v>4336</v>
       </c>
       <c r="AE27" s="16" t="n">
-        <v>4336</v>
+        <v>406631</v>
       </c>
       <c r="AF27" s="16" t="n">
-        <v>406631</v>
+        <v>740878</v>
       </c>
       <c r="AG27" s="16" t="n">
-        <v>740878</v>
+        <v>402425</v>
       </c>
       <c r="AH27" s="16" t="n">
-        <v>402425</v>
+        <v>90239</v>
       </c>
       <c r="AI27" s="16" t="n">
-        <v>90239</v>
+        <v>179692</v>
       </c>
       <c r="AJ27" s="16" t="n">
-        <v>179692</v>
+        <v>330801</v>
       </c>
       <c r="AK27" s="16" t="n">
-        <v>330801</v>
+        <v>496694</v>
       </c>
       <c r="AL27" s="16" t="n">
-        <v>496694</v>
+        <v>722123</v>
       </c>
       <c r="AM27" s="16" t="n">
-        <v>722123</v>
+        <v>831675</v>
       </c>
       <c r="AN27" s="16" t="n">
-        <v>831675</v>
+        <v>1005126</v>
       </c>
       <c r="AO27" s="16" t="n">
-        <v>1005126</v>
+        <v>530994</v>
       </c>
       <c r="AP27" s="16" t="n">
-        <v>530994</v>
+        <v>281762</v>
       </c>
       <c r="AQ27" s="16" t="n">
-        <v>281762</v>
+        <v>387185</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>387185</v>
+        <v>1065173</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>1065173</v>
+        <v>392215</v>
       </c>
       <c r="AT27" s="16" t="n">
-        <v>392215</v>
+        <v>788973</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>788973</v>
+        <v>858792</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>858792</v>
+        <v>935057</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>935057</v>
+        <v>799395</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>799395</v>
+        <v>852123</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>852123</v>
+        <v>803299</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>803299</v>
+        <v>80983</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>80983</v>
+        <v>30072</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>30072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,154 +5394,154 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="n">
-        <v>354175</v>
+        <v>147225</v>
       </c>
       <c r="F28" s="15" t="n">
-        <v>147225</v>
+        <v>201457</v>
       </c>
       <c r="G28" s="15" t="n">
-        <v>201457</v>
+        <v>327136</v>
       </c>
       <c r="H28" s="15" t="n">
-        <v>327136</v>
+        <v>278520</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>278520</v>
+        <v>419849</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>419849</v>
+        <v>216380</v>
       </c>
       <c r="K28" s="15" t="n">
-        <v>216380</v>
+        <v>364395</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>364395</v>
+        <v>328697</v>
       </c>
       <c r="M28" s="15" t="n">
-        <v>328697</v>
+        <v>323679</v>
       </c>
       <c r="N28" s="15" t="n">
-        <v>323679</v>
+        <v>375983</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>375983</v>
+        <v>280647</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>280647</v>
+        <v>231344</v>
       </c>
       <c r="Q28" s="15" t="n">
-        <v>231344</v>
+        <v>67637</v>
       </c>
       <c r="R28" s="15" t="n">
-        <v>67637</v>
+        <v>214010</v>
       </c>
       <c r="S28" s="15" t="n">
-        <v>214010</v>
+        <v>426495</v>
       </c>
       <c r="T28" s="15" t="n">
-        <v>426495</v>
+        <v>229967</v>
       </c>
       <c r="U28" s="15" t="n">
-        <v>229967</v>
+        <v>542093</v>
       </c>
       <c r="V28" s="15" t="n">
-        <v>542093</v>
+        <v>136926</v>
       </c>
       <c r="W28" s="15" t="n">
-        <v>136926</v>
+        <v>293169</v>
       </c>
       <c r="X28" s="15" t="n">
-        <v>293169</v>
+        <v>297996</v>
       </c>
       <c r="Y28" s="15" t="n">
-        <v>297996</v>
+        <v>199523</v>
       </c>
       <c r="Z28" s="15" t="n">
-        <v>199523</v>
+        <v>266272</v>
       </c>
       <c r="AA28" s="15" t="n">
-        <v>266272</v>
+        <v>234466</v>
       </c>
       <c r="AB28" s="15" t="n">
-        <v>234466</v>
+        <v>277973</v>
       </c>
       <c r="AC28" s="15" t="n">
-        <v>277973</v>
+        <v>92889</v>
       </c>
       <c r="AD28" s="15" t="n">
-        <v>92889</v>
+        <v>102093</v>
       </c>
       <c r="AE28" s="15" t="n">
-        <v>102093</v>
+        <v>251122</v>
       </c>
       <c r="AF28" s="15" t="n">
-        <v>251122</v>
+        <v>358383</v>
       </c>
       <c r="AG28" s="15" t="n">
-        <v>358383</v>
+        <v>346755</v>
       </c>
       <c r="AH28" s="15" t="n">
-        <v>346755</v>
+        <v>459027</v>
       </c>
       <c r="AI28" s="15" t="n">
-        <v>459027</v>
+        <v>448605</v>
       </c>
       <c r="AJ28" s="15" t="n">
-        <v>448605</v>
+        <v>652949</v>
       </c>
       <c r="AK28" s="15" t="n">
-        <v>652949</v>
+        <v>375663</v>
       </c>
       <c r="AL28" s="15" t="n">
-        <v>375663</v>
+        <v>567910</v>
       </c>
       <c r="AM28" s="15" t="n">
-        <v>567910</v>
+        <v>490451</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>490451</v>
+        <v>741267</v>
       </c>
       <c r="AO28" s="15" t="n">
-        <v>741267</v>
+        <v>477342</v>
       </c>
       <c r="AP28" s="15" t="n">
-        <v>477342</v>
+        <v>184964</v>
       </c>
       <c r="AQ28" s="15" t="n">
-        <v>184964</v>
+        <v>347176</v>
       </c>
       <c r="AR28" s="15" t="n">
-        <v>347176</v>
+        <v>364166</v>
       </c>
       <c r="AS28" s="15" t="n">
-        <v>364166</v>
+        <v>376206</v>
       </c>
       <c r="AT28" s="15" t="n">
-        <v>376206</v>
+        <v>416386</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>416386</v>
+        <v>469644</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>469644</v>
+        <v>373667</v>
       </c>
       <c r="AW28" s="15" t="n">
-        <v>373667</v>
+        <v>294985</v>
       </c>
       <c r="AX28" s="15" t="n">
-        <v>294985</v>
+        <v>449771</v>
       </c>
       <c r="AY28" s="15" t="n">
-        <v>449771</v>
+        <v>645881</v>
       </c>
       <c r="AZ28" s="15" t="n">
-        <v>645881</v>
+        <v>611907</v>
       </c>
       <c r="BA28" s="15" t="n">
-        <v>611907</v>
+        <v>306010</v>
       </c>
       <c r="BB28" s="15" t="n">
-        <v>306010</v>
+        <v>131133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,154 +5553,154 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>1199500</v>
+        <v>563319</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>563319</v>
+        <v>963617</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>963617</v>
+        <v>1256350</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>1256350</v>
+        <v>1419322</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>1419322</v>
+        <v>1596908</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>1596908</v>
+        <v>978164</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>978164</v>
+        <v>1488339</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1488339</v>
+        <v>1434553</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>1434553</v>
+        <v>1555448</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>1555448</v>
+        <v>1116645</v>
       </c>
       <c r="O29" s="16" t="n">
-        <v>1116645</v>
+        <v>1407627</v>
       </c>
       <c r="P29" s="16" t="n">
-        <v>1407627</v>
+        <v>1486780</v>
       </c>
       <c r="Q29" s="16" t="n">
-        <v>1486780</v>
+        <v>924237</v>
       </c>
       <c r="R29" s="16" t="n">
-        <v>924237</v>
+        <v>1407087</v>
       </c>
       <c r="S29" s="16" t="n">
-        <v>1407087</v>
+        <v>1559847</v>
       </c>
       <c r="T29" s="16" t="n">
-        <v>1559847</v>
+        <v>1939835</v>
       </c>
       <c r="U29" s="16" t="n">
-        <v>1939835</v>
+        <v>158697</v>
       </c>
       <c r="V29" s="16" t="n">
-        <v>158697</v>
+        <v>1546519</v>
       </c>
       <c r="W29" s="16" t="n">
-        <v>1546519</v>
+        <v>1850035</v>
       </c>
       <c r="X29" s="16" t="n">
-        <v>1850035</v>
+        <v>186605</v>
       </c>
       <c r="Y29" s="16" t="n">
-        <v>186605</v>
+        <v>2044412</v>
       </c>
       <c r="Z29" s="16" t="n">
-        <v>2044412</v>
+        <v>1853548</v>
       </c>
       <c r="AA29" s="16" t="n">
-        <v>1853548</v>
+        <v>1713689</v>
       </c>
       <c r="AB29" s="16" t="n">
-        <v>1713689</v>
+        <v>2342738</v>
       </c>
       <c r="AC29" s="16" t="n">
-        <v>2342738</v>
+        <v>1029715</v>
       </c>
       <c r="AD29" s="16" t="n">
-        <v>1029715</v>
+        <v>1171225</v>
       </c>
       <c r="AE29" s="16" t="n">
-        <v>1171225</v>
+        <v>1659445</v>
       </c>
       <c r="AF29" s="16" t="n">
-        <v>1659445</v>
+        <v>1627956</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>1627956</v>
+        <v>1975885</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>1975885</v>
+        <v>1600558</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>1600558</v>
+        <v>2252144</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>2252144</v>
+        <v>1729169</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>1729169</v>
+        <v>2637646</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>2637646</v>
+        <v>1648346</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>1648346</v>
+        <v>1702649</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>1702649</v>
+        <v>1481162</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>1481162</v>
+        <v>2410527</v>
       </c>
       <c r="AP29" s="16" t="n">
-        <v>2410527</v>
+        <v>821219</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>821219</v>
+        <v>1761438</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>1761438</v>
+        <v>1950621</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>1950621</v>
+        <v>2531470</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>2531470</v>
+        <v>2526320</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>2526320</v>
+        <v>1848895</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>1848895</v>
+        <v>2605249</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>2605249</v>
+        <v>2542425</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>2542425</v>
+        <v>2276531</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>2276531</v>
+        <v>2299492</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>2299492</v>
+        <v>1962570</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>1962570</v>
+        <v>1818643</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>1818643</v>
+        <v>940521</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,154 +5712,154 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="n">
-        <v>802331</v>
+        <v>324625</v>
       </c>
       <c r="F30" s="15" t="n">
-        <v>324625</v>
+        <v>431736</v>
       </c>
       <c r="G30" s="15" t="n">
-        <v>431736</v>
+        <v>815452</v>
       </c>
       <c r="H30" s="15" t="n">
-        <v>815452</v>
+        <v>493632</v>
       </c>
       <c r="I30" s="15" t="n">
-        <v>493632</v>
+        <v>723568</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>723568</v>
+        <v>803016</v>
       </c>
       <c r="K30" s="15" t="n">
-        <v>803016</v>
+        <v>580920</v>
       </c>
       <c r="L30" s="15" t="n">
-        <v>580920</v>
+        <v>827974</v>
       </c>
       <c r="M30" s="15" t="n">
-        <v>827974</v>
+        <v>748056</v>
       </c>
       <c r="N30" s="15" t="n">
-        <v>748056</v>
+        <v>1136740</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>1136740</v>
+        <v>801744</v>
       </c>
       <c r="P30" s="15" t="n">
-        <v>801744</v>
+        <v>1016470</v>
       </c>
       <c r="Q30" s="15" t="n">
-        <v>1016470</v>
+        <v>1140040</v>
       </c>
       <c r="R30" s="15" t="n">
-        <v>1140040</v>
+        <v>724683</v>
       </c>
       <c r="S30" s="15" t="n">
-        <v>724683</v>
+        <v>942976</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>942976</v>
+        <v>1428908</v>
       </c>
       <c r="U30" s="15" t="n">
-        <v>1428908</v>
+        <v>83483</v>
       </c>
       <c r="V30" s="15" t="n">
-        <v>83483</v>
+        <v>494702</v>
       </c>
       <c r="W30" s="15" t="n">
-        <v>494702</v>
+        <v>352634</v>
       </c>
       <c r="X30" s="15" t="n">
-        <v>352634</v>
+        <v>525146</v>
       </c>
       <c r="Y30" s="15" t="n">
-        <v>525146</v>
+        <v>601436</v>
       </c>
       <c r="Z30" s="15" t="n">
-        <v>601436</v>
+        <v>912181</v>
       </c>
       <c r="AA30" s="15" t="n">
-        <v>912181</v>
+        <v>450075</v>
       </c>
       <c r="AB30" s="15" t="n">
-        <v>450075</v>
+        <v>618324</v>
       </c>
       <c r="AC30" s="15" t="n">
-        <v>618324</v>
+        <v>3000</v>
       </c>
       <c r="AD30" s="15" t="n">
-        <v>3000</v>
+        <v>21754</v>
       </c>
       <c r="AE30" s="15" t="n">
-        <v>21754</v>
+        <v>305557</v>
       </c>
       <c r="AF30" s="15" t="n">
-        <v>305557</v>
+        <v>397757</v>
       </c>
       <c r="AG30" s="15" t="n">
-        <v>397757</v>
+        <v>578818</v>
       </c>
       <c r="AH30" s="15" t="n">
-        <v>578818</v>
+        <v>380327</v>
       </c>
       <c r="AI30" s="15" t="n">
-        <v>380327</v>
+        <v>563590</v>
       </c>
       <c r="AJ30" s="15" t="n">
-        <v>563590</v>
+        <v>674610</v>
       </c>
       <c r="AK30" s="15" t="n">
-        <v>674610</v>
+        <v>679651</v>
       </c>
       <c r="AL30" s="15" t="n">
-        <v>679651</v>
+        <v>729653</v>
       </c>
       <c r="AM30" s="15" t="n">
-        <v>729653</v>
+        <v>686295</v>
       </c>
       <c r="AN30" s="15" t="n">
-        <v>686295</v>
+        <v>602854</v>
       </c>
       <c r="AO30" s="15" t="n">
-        <v>602854</v>
+        <v>253917</v>
       </c>
       <c r="AP30" s="15" t="n">
-        <v>253917</v>
+        <v>304949</v>
       </c>
       <c r="AQ30" s="15" t="n">
-        <v>304949</v>
+        <v>467328</v>
       </c>
       <c r="AR30" s="15" t="n">
-        <v>467328</v>
+        <v>426759</v>
       </c>
       <c r="AS30" s="15" t="n">
-        <v>426759</v>
+        <v>500171</v>
       </c>
       <c r="AT30" s="15" t="n">
-        <v>500171</v>
+        <v>713236</v>
       </c>
       <c r="AU30" s="15" t="n">
-        <v>713236</v>
+        <v>794824</v>
       </c>
       <c r="AV30" s="15" t="n">
-        <v>794824</v>
+        <v>913717</v>
       </c>
       <c r="AW30" s="15" t="n">
-        <v>913717</v>
+        <v>841974</v>
       </c>
       <c r="AX30" s="15" t="n">
-        <v>841974</v>
+        <v>569023</v>
       </c>
       <c r="AY30" s="15" t="n">
-        <v>569023</v>
+        <v>758427</v>
       </c>
       <c r="AZ30" s="15" t="n">
-        <v>758427</v>
+        <v>398650</v>
       </c>
       <c r="BA30" s="15" t="n">
-        <v>398650</v>
+        <v>819053</v>
       </c>
       <c r="BB30" s="15" t="n">
-        <v>819053</v>
+        <v>359629</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,154 +5871,154 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>154543</v>
+        <v>0</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>0</v>
+        <v>329837</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>329837</v>
+        <v>1577385</v>
       </c>
       <c r="H31" s="16" t="n">
-        <v>1577385</v>
+        <v>558271</v>
       </c>
       <c r="I31" s="16" t="n">
-        <v>558271</v>
+        <v>605009</v>
       </c>
       <c r="J31" s="16" t="n">
-        <v>605009</v>
+        <v>737093</v>
       </c>
       <c r="K31" s="16" t="n">
-        <v>737093</v>
+        <v>437369</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>437369</v>
+        <v>344306</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>344306</v>
+        <v>591283</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>591283</v>
+        <v>660272</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>660272</v>
+        <v>739267</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>739267</v>
+        <v>718511</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>718511</v>
+        <v>179125</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>179125</v>
+        <v>549233</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>549233</v>
+        <v>355990</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>355990</v>
+        <v>318031</v>
       </c>
       <c r="U31" s="16" t="n">
-        <v>318031</v>
+        <v>434829</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>434829</v>
+        <v>461513</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>461513</v>
+        <v>838555</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>838555</v>
+        <v>796619</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>796619</v>
+        <v>846614</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>846614</v>
+        <v>857949</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>857949</v>
+        <v>848392</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>848392</v>
+        <v>768795</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>768795</v>
+        <v>712992</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>712992</v>
+        <v>525816</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>525816</v>
+        <v>881380</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>881380</v>
+        <v>716593</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>716593</v>
+        <v>533462</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>533462</v>
+        <v>660993</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>660993</v>
+        <v>749759</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>749759</v>
+        <v>340056</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>340056</v>
+        <v>722695</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>722695</v>
+        <v>764593</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>764593</v>
+        <v>691997</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>691997</v>
+        <v>314945</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>314945</v>
+        <v>495918</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>495918</v>
+        <v>301401</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>301401</v>
+        <v>489555</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>489555</v>
+        <v>406254</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>406254</v>
+        <v>463185</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>463185</v>
+        <v>637538</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>637538</v>
+        <v>518565</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>518565</v>
+        <v>276861</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>276861</v>
+        <v>198884</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>198884</v>
+        <v>361040</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>361040</v>
+        <v>133913</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>133913</v>
+        <v>222480</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>222480</v>
+        <v>360600</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>360600</v>
+        <v>112450</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,8 +6129,8 @@
       <c r="S33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T33" s="20" t="s">
-        <v>66</v>
+      <c r="T33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U33" s="20" t="n">
         <v>0</v>
@@ -6348,8 +6348,8 @@
       <c r="T35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U35" s="15" t="s">
-        <v>66</v>
+      <c r="U35" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="15" t="n">
         <v>0</v>
@@ -6361,37 +6361,37 @@
         <v>0</v>
       </c>
       <c r="Y35" s="15" t="n">
-        <v>0</v>
+        <v>-10020</v>
       </c>
       <c r="Z35" s="15" t="n">
-        <v>-10020</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="15" t="n">
-        <v>0</v>
+        <v>-708</v>
       </c>
       <c r="AB35" s="15" t="n">
-        <v>-708</v>
+        <v>-59295</v>
       </c>
       <c r="AC35" s="15" t="n">
-        <v>-59295</v>
+        <v>-60</v>
       </c>
       <c r="AD35" s="15" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AE35" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF35" s="15" t="n">
+        <v>-360</v>
       </c>
       <c r="AG35" s="15" t="n">
-        <v>-360</v>
+        <v>-10017</v>
       </c>
       <c r="AH35" s="15" t="n">
-        <v>-10017</v>
-      </c>
-      <c r="AI35" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="AJ35" s="15" t="s">
         <v>66</v>
@@ -6426,29 +6426,29 @@
       <c r="AT35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AU35" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV35" s="15" t="n">
+      <c r="AU35" s="15" t="n">
         <v>-100</v>
       </c>
-      <c r="AW35" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX35" s="15" t="n">
+      <c r="AV35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW35" s="15" t="n">
         <v>-30</v>
       </c>
+      <c r="AX35" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="AY35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AZ35" s="15" t="s">
-        <v>66</v>
+      <c r="AZ35" s="15" t="n">
+        <v>-3000</v>
       </c>
       <c r="BA35" s="15" t="n">
-        <v>-3000</v>
-      </c>
-      <c r="BB35" s="15" t="n">
         <v>-30102</v>
+      </c>
+      <c r="BB35" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,72 +6504,72 @@
       <c r="S36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T36" s="16" t="s">
-        <v>66</v>
+      <c r="T36" s="16" t="n">
+        <v>-102010</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>-102010</v>
+        <v>-190000</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>-190000</v>
+        <v>-32</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>-32</v>
+        <v>-12121</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>-12121</v>
+        <v>-10443</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>-10443</v>
+        <v>-1863</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>-1863</v>
+        <v>-4509</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>-4509</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>0</v>
+        <v>-9647</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>-9647</v>
+        <v>-15</v>
       </c>
       <c r="AD36" s="16" t="n">
+        <v>-8100</v>
+      </c>
+      <c r="AE36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF36" s="16" t="n">
+        <v>-3600</v>
+      </c>
+      <c r="AG36" s="16" t="n">
         <v>-15</v>
       </c>
-      <c r="AE36" s="16" t="n">
-        <v>-8100</v>
-      </c>
-      <c r="AF36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG36" s="16" t="n">
-        <v>-3600</v>
-      </c>
       <c r="AH36" s="16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AI36" s="16" t="n">
         <v>-810</v>
       </c>
-      <c r="AJ36" s="16" t="s">
-        <v>66</v>
+      <c r="AI36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ36" s="16" t="n">
+        <v>-158730</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>-158730</v>
-      </c>
-      <c r="AL36" s="16" t="n">
         <v>-14</v>
       </c>
+      <c r="AL36" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AM36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AN36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO36" s="16" t="n">
+      <c r="AN36" s="16" t="n">
         <v>-2010</v>
       </c>
+      <c r="AO36" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AP36" s="16" t="s">
         <v>66</v>
       </c>
@@ -6585,29 +6585,29 @@
       <c r="AT36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AU36" s="16" t="s">
-        <v>66</v>
+      <c r="AU36" s="16" t="n">
+        <v>-11</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>-11</v>
+        <v>-5010</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>-5010</v>
-      </c>
-      <c r="AX36" s="16" t="n">
         <v>-364</v>
       </c>
+      <c r="AX36" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AY36" s="16" t="s">
         <v>66</v>
       </c>
       <c r="AZ36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="BA36" s="16" t="s">
-        <v>66</v>
+      <c r="BA36" s="16" t="n">
+        <v>-35010</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>-35010</v>
+        <v>-450</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,69 +6663,69 @@
       <c r="S37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T37" s="15" t="s">
-        <v>66</v>
+      <c r="T37" s="15" t="n">
+        <v>-67027</v>
       </c>
       <c r="U37" s="15" t="n">
-        <v>-67027</v>
+        <v>-77000</v>
       </c>
       <c r="V37" s="15" t="n">
-        <v>-77000</v>
+        <v>-6</v>
       </c>
       <c r="W37" s="15" t="n">
-        <v>-6</v>
+        <v>-23450</v>
       </c>
       <c r="X37" s="15" t="n">
-        <v>-23450</v>
+        <v>-1</v>
       </c>
       <c r="Y37" s="15" t="n">
-        <v>-1</v>
+        <v>-29970</v>
       </c>
       <c r="Z37" s="15" t="n">
-        <v>-29970</v>
+        <v>-1456</v>
       </c>
       <c r="AA37" s="15" t="n">
-        <v>-1456</v>
+        <v>-10000</v>
       </c>
       <c r="AB37" s="15" t="n">
-        <v>-10000</v>
+        <v>-35724</v>
       </c>
       <c r="AC37" s="15" t="n">
-        <v>-35724</v>
+        <v>-1927</v>
       </c>
       <c r="AD37" s="15" t="n">
-        <v>-1927</v>
-      </c>
-      <c r="AE37" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="AF37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="15" t="s">
-        <v>66</v>
+      <c r="AG37" s="15" t="n">
+        <v>-9</v>
       </c>
       <c r="AH37" s="15" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AI37" s="15" t="n">
         <v>-15</v>
       </c>
-      <c r="AJ37" s="15" t="s">
-        <v>66</v>
+      <c r="AI37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ37" s="15" t="n">
+        <v>-53875</v>
       </c>
       <c r="AK37" s="15" t="n">
-        <v>-53875</v>
-      </c>
-      <c r="AL37" s="15" t="n">
         <v>-4</v>
       </c>
-      <c r="AM37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN37" s="15" t="n">
+      <c r="AL37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM37" s="15" t="n">
         <v>-13</v>
       </c>
+      <c r="AN37" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="AO37" s="15" t="s">
         <v>66</v>
       </c>
@@ -6735,38 +6735,38 @@
       <c r="AQ37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS37" s="15" t="n">
+      <c r="AR37" s="15" t="n">
         <v>11202</v>
       </c>
+      <c r="AS37" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="AT37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AU37" s="15" t="s">
-        <v>66</v>
+      <c r="AU37" s="15" t="n">
+        <v>-12</v>
       </c>
       <c r="AV37" s="15" t="n">
-        <v>-12</v>
+        <v>-12048</v>
       </c>
       <c r="AW37" s="15" t="n">
-        <v>-12048</v>
+        <v>-640</v>
       </c>
       <c r="AX37" s="15" t="n">
-        <v>-640</v>
-      </c>
-      <c r="AY37" s="15" t="n">
         <v>-8231</v>
       </c>
-      <c r="AZ37" s="15" t="s">
-        <v>66</v>
+      <c r="AY37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ37" s="15" t="n">
+        <v>-15999</v>
       </c>
       <c r="BA37" s="15" t="n">
-        <v>-15999</v>
+        <v>-11325</v>
       </c>
       <c r="BB37" s="15" t="n">
-        <v>-11325</v>
+        <v>-15310</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,63 +6822,63 @@
       <c r="S38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T38" s="16" t="s">
-        <v>66</v>
+      <c r="T38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>0</v>
+        <v>-190016</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>-190016</v>
+        <v>0</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>0</v>
+        <v>-30012</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>-30012</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>0</v>
+        <v>-8460</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>-8460</v>
+        <v>-9825</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>-9825</v>
+        <v>-24</v>
       </c>
       <c r="AB38" s="16" t="n">
+        <v>-107379</v>
+      </c>
+      <c r="AC38" s="16" t="n">
         <v>-24</v>
       </c>
-      <c r="AC38" s="16" t="n">
-        <v>-107379</v>
-      </c>
       <c r="AD38" s="16" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>0</v>
+        <v>-34056</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>-34056</v>
+        <v>-29</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>-29</v>
+        <v>-10257</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>-10257</v>
-      </c>
-      <c r="AI38" s="16" t="n">
         <v>-120</v>
       </c>
+      <c r="AI38" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AK38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL38" s="16" t="n">
+      <c r="AK38" s="16" t="n">
         <v>-529</v>
       </c>
+      <c r="AL38" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AM38" s="16" t="s">
         <v>66</v>
       </c>
@@ -6888,12 +6888,12 @@
       <c r="AO38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AP38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ38" s="16" t="n">
+      <c r="AP38" s="16" t="n">
         <v>-192</v>
       </c>
+      <c r="AQ38" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AR38" s="16" t="s">
         <v>66</v>
       </c>
@@ -6903,17 +6903,17 @@
       <c r="AT38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AU38" s="16" t="s">
-        <v>66</v>
+      <c r="AU38" s="16" t="n">
+        <v>-20</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX38" s="16" t="n">
-        <v>0</v>
+      <c r="AX38" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="AY38" s="16" t="s">
         <v>66</v>
@@ -6981,8 +6981,8 @@
       <c r="S39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T39" s="15" t="s">
-        <v>66</v>
+      <c r="T39" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U39" s="15" t="n">
         <v>0</v>
@@ -7009,82 +7009,82 @@
         <v>0</v>
       </c>
       <c r="AC39" s="15" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AD39" s="15" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AE39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF39" s="15" t="n">
+        <v>-29862</v>
       </c>
       <c r="AG39" s="15" t="n">
-        <v>-29862</v>
+        <v>-9</v>
       </c>
       <c r="AH39" s="15" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="15" t="n">
         <v>-18000</v>
       </c>
-      <c r="AK39" s="15" t="s">
-        <v>66</v>
+      <c r="AJ39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK39" s="15" t="n">
+        <v>-4</v>
       </c>
       <c r="AL39" s="15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM39" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="AN39" s="15" t="s">
-        <v>66</v>
+      <c r="AM39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN39" s="15" t="n">
+        <v>-94040</v>
       </c>
       <c r="AO39" s="15" t="n">
-        <v>-94040</v>
+        <v>-26</v>
       </c>
       <c r="AP39" s="15" t="n">
-        <v>-26</v>
-      </c>
-      <c r="AQ39" s="15" t="n">
         <v>-8</v>
       </c>
-      <c r="AR39" s="15" t="s">
-        <v>66</v>
+      <c r="AQ39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR39" s="15" t="n">
+        <v>-8</v>
       </c>
       <c r="AS39" s="15" t="n">
+        <v>-406764</v>
+      </c>
+      <c r="AT39" s="15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="15" t="n">
+        <v>-203</v>
+      </c>
+      <c r="AW39" s="15" t="n">
+        <v>-197</v>
+      </c>
+      <c r="AX39" s="15" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AY39" s="15" t="n">
+        <v>-73015</v>
+      </c>
+      <c r="AZ39" s="15" t="n">
+        <v>-208</v>
+      </c>
+      <c r="BA39" s="15" t="n">
+        <v>-53</v>
+      </c>
+      <c r="BB39" s="15" t="n">
         <v>-8</v>
-      </c>
-      <c r="AT39" s="15" t="n">
-        <v>-406764</v>
-      </c>
-      <c r="AU39" s="15" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="15" t="n">
-        <v>-203</v>
-      </c>
-      <c r="AX39" s="15" t="n">
-        <v>-197</v>
-      </c>
-      <c r="AY39" s="15" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AZ39" s="15" t="n">
-        <v>-73015</v>
-      </c>
-      <c r="BA39" s="15" t="n">
-        <v>-208</v>
-      </c>
-      <c r="BB39" s="15" t="n">
-        <v>-53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,110 +7138,110 @@
       <c r="S40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T40" s="22" t="s">
-        <v>66</v>
+      <c r="T40" s="22" t="n">
+        <v>-169037</v>
       </c>
       <c r="U40" s="22" t="n">
-        <v>-169037</v>
+        <v>-457016</v>
       </c>
       <c r="V40" s="22" t="n">
-        <v>-457016</v>
+        <v>-38</v>
       </c>
       <c r="W40" s="22" t="n">
-        <v>-38</v>
+        <v>-65583</v>
       </c>
       <c r="X40" s="22" t="n">
-        <v>-65583</v>
+        <v>-10444</v>
       </c>
       <c r="Y40" s="22" t="n">
-        <v>-10444</v>
+        <v>-50313</v>
       </c>
       <c r="Z40" s="22" t="n">
-        <v>-50313</v>
+        <v>-15790</v>
       </c>
       <c r="AA40" s="22" t="n">
-        <v>-15790</v>
+        <v>-10732</v>
       </c>
       <c r="AB40" s="22" t="n">
-        <v>-10732</v>
+        <v>-212045</v>
       </c>
       <c r="AC40" s="22" t="n">
-        <v>-212045</v>
+        <v>-2086</v>
       </c>
       <c r="AD40" s="22" t="n">
-        <v>-2086</v>
+        <v>-8100</v>
       </c>
       <c r="AE40" s="22" t="n">
-        <v>-8100</v>
+        <v>-34056</v>
       </c>
       <c r="AF40" s="22" t="n">
-        <v>-34056</v>
+        <v>-33851</v>
       </c>
       <c r="AG40" s="22" t="n">
-        <v>-33851</v>
+        <v>-20307</v>
       </c>
       <c r="AH40" s="22" t="n">
-        <v>-20307</v>
+        <v>-945</v>
       </c>
       <c r="AI40" s="22" t="n">
-        <v>-945</v>
+        <v>-18000</v>
       </c>
       <c r="AJ40" s="22" t="n">
-        <v>-18000</v>
+        <v>-212605</v>
       </c>
       <c r="AK40" s="22" t="n">
-        <v>-212605</v>
+        <v>-551</v>
       </c>
       <c r="AL40" s="22" t="n">
-        <v>-551</v>
+        <v>-1</v>
       </c>
       <c r="AM40" s="22" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="AN40" s="22" t="n">
-        <v>-13</v>
+        <v>-96050</v>
       </c>
       <c r="AO40" s="22" t="n">
-        <v>-96050</v>
+        <v>-26</v>
       </c>
       <c r="AP40" s="22" t="n">
-        <v>-26</v>
+        <v>-200</v>
       </c>
       <c r="AQ40" s="22" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="22" t="n">
-        <v>0</v>
+        <v>11194</v>
       </c>
       <c r="AS40" s="22" t="n">
-        <v>11194</v>
+        <v>-406764</v>
       </c>
       <c r="AT40" s="22" t="n">
-        <v>-406764</v>
+        <v>-12</v>
       </c>
       <c r="AU40" s="22" t="n">
-        <v>-12</v>
+        <v>-143</v>
       </c>
       <c r="AV40" s="22" t="n">
-        <v>-143</v>
+        <v>-17261</v>
       </c>
       <c r="AW40" s="22" t="n">
-        <v>-17261</v>
+        <v>-1231</v>
       </c>
       <c r="AX40" s="22" t="n">
-        <v>-1231</v>
+        <v>-8254</v>
       </c>
       <c r="AY40" s="22" t="n">
-        <v>-8254</v>
+        <v>-73015</v>
       </c>
       <c r="AZ40" s="22" t="n">
-        <v>-73015</v>
+        <v>-19207</v>
       </c>
       <c r="BA40" s="22" t="n">
-        <v>-19207</v>
+        <v>-76490</v>
       </c>
       <c r="BB40" s="22" t="n">
-        <v>-76490</v>
+        <v>-15768</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,154 +7251,154 @@
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="n">
-        <v>3112020</v>
+        <v>1382522</v>
       </c>
       <c r="F41" s="20" t="n">
-        <v>1382522</v>
+        <v>2568358</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>2568358</v>
+        <v>4816342</v>
       </c>
       <c r="H41" s="20" t="n">
-        <v>4816342</v>
+        <v>3452413</v>
       </c>
       <c r="I41" s="20" t="n">
-        <v>3452413</v>
+        <v>3878929</v>
       </c>
       <c r="J41" s="20" t="n">
-        <v>3878929</v>
+        <v>3022136</v>
       </c>
       <c r="K41" s="20" t="n">
-        <v>3022136</v>
+        <v>3453466</v>
       </c>
       <c r="L41" s="20" t="n">
-        <v>3453466</v>
+        <v>3484258</v>
       </c>
       <c r="M41" s="20" t="n">
-        <v>3484258</v>
+        <v>3613283</v>
       </c>
       <c r="N41" s="20" t="n">
-        <v>3613283</v>
+        <v>4084516</v>
       </c>
       <c r="O41" s="20" t="n">
-        <v>4084516</v>
+        <v>4003401</v>
       </c>
       <c r="P41" s="20" t="n">
-        <v>4003401</v>
+        <v>4300790</v>
       </c>
       <c r="Q41" s="20" t="n">
-        <v>4300790</v>
+        <v>2809469</v>
       </c>
       <c r="R41" s="20" t="n">
-        <v>2809469</v>
+        <v>3379796</v>
       </c>
       <c r="S41" s="20" t="n">
-        <v>3379796</v>
+        <v>4112331</v>
       </c>
       <c r="T41" s="20" t="n">
-        <v>4112331</v>
+        <v>4375015</v>
       </c>
       <c r="U41" s="20" t="n">
-        <v>4375015</v>
+        <v>866016</v>
       </c>
       <c r="V41" s="20" t="n">
-        <v>866016</v>
+        <v>3009392</v>
       </c>
       <c r="W41" s="20" t="n">
-        <v>3009392</v>
+        <v>3828645</v>
       </c>
       <c r="X41" s="20" t="n">
-        <v>3828645</v>
+        <v>2668436</v>
       </c>
       <c r="Y41" s="20" t="n">
-        <v>2668436</v>
+        <v>4407859</v>
       </c>
       <c r="Z41" s="20" t="n">
-        <v>4407859</v>
+        <v>4355462</v>
       </c>
       <c r="AA41" s="20" t="n">
-        <v>4355462</v>
+        <v>4381100</v>
       </c>
       <c r="AB41" s="20" t="n">
-        <v>4381100</v>
+        <v>4678968</v>
       </c>
       <c r="AC41" s="20" t="n">
-        <v>4678968</v>
+        <v>1867220</v>
       </c>
       <c r="AD41" s="20" t="n">
-        <v>1867220</v>
+        <v>1843914</v>
       </c>
       <c r="AE41" s="20" t="n">
-        <v>1843914</v>
+        <v>3474584</v>
       </c>
       <c r="AF41" s="20" t="n">
-        <v>3474584</v>
+        <v>3822616</v>
       </c>
       <c r="AG41" s="20" t="n">
-        <v>3822616</v>
+        <v>3866528</v>
       </c>
       <c r="AH41" s="20" t="n">
-        <v>3866528</v>
+        <v>3228059</v>
       </c>
       <c r="AI41" s="20" t="n">
-        <v>3228059</v>
+        <v>4227480</v>
       </c>
       <c r="AJ41" s="20" t="n">
-        <v>4227480</v>
+        <v>3546020</v>
       </c>
       <c r="AK41" s="20" t="n">
-        <v>3546020</v>
+        <v>4924488</v>
       </c>
       <c r="AL41" s="20" t="n">
-        <v>4924488</v>
+        <v>4432624</v>
       </c>
       <c r="AM41" s="20" t="n">
-        <v>4432624</v>
+        <v>4403054</v>
       </c>
       <c r="AN41" s="20" t="n">
-        <v>4403054</v>
+        <v>4049304</v>
       </c>
       <c r="AO41" s="20" t="n">
-        <v>4049304</v>
+        <v>4168672</v>
       </c>
       <c r="AP41" s="20" t="n">
-        <v>4168672</v>
+        <v>1894095</v>
       </c>
       <c r="AQ41" s="20" t="n">
-        <v>1894095</v>
+        <v>3452682</v>
       </c>
       <c r="AR41" s="20" t="n">
-        <v>3452682</v>
+        <v>4224167</v>
       </c>
       <c r="AS41" s="20" t="n">
-        <v>4224167</v>
+        <v>3856483</v>
       </c>
       <c r="AT41" s="20" t="n">
-        <v>3856483</v>
+        <v>5082441</v>
       </c>
       <c r="AU41" s="20" t="n">
-        <v>5082441</v>
+        <v>4490577</v>
       </c>
       <c r="AV41" s="20" t="n">
-        <v>4490577</v>
+        <v>5087290</v>
       </c>
       <c r="AW41" s="20" t="n">
-        <v>5087290</v>
+        <v>4676432</v>
       </c>
       <c r="AX41" s="20" t="n">
-        <v>4676432</v>
+        <v>4500234</v>
       </c>
       <c r="AY41" s="20" t="n">
-        <v>4500234</v>
+        <v>4567997</v>
       </c>
       <c r="AZ41" s="20" t="n">
-        <v>4567997</v>
+        <v>3257383</v>
       </c>
       <c r="BA41" s="20" t="n">
-        <v>3257383</v>
+        <v>3269488</v>
       </c>
       <c r="BB41" s="20" t="n">
-        <v>3269488</v>
+        <v>1527965</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7844,106 +7844,106 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="n">
-        <v>8067</v>
+        <v>5300</v>
       </c>
       <c r="F48" s="15" t="n">
-        <v>5300</v>
+        <v>2442</v>
       </c>
       <c r="G48" s="15" t="n">
-        <v>2442</v>
+        <v>13681</v>
       </c>
       <c r="H48" s="15" t="n">
-        <v>13681</v>
+        <v>4631</v>
       </c>
       <c r="I48" s="15" t="n">
-        <v>4631</v>
+        <v>1421</v>
       </c>
       <c r="J48" s="15" t="n">
-        <v>1421</v>
+        <v>7878</v>
       </c>
       <c r="K48" s="15" t="n">
-        <v>7878</v>
+        <v>8978</v>
       </c>
       <c r="L48" s="15" t="n">
-        <v>8978</v>
+        <v>2661</v>
       </c>
       <c r="M48" s="15" t="n">
-        <v>2661</v>
+        <v>1310</v>
       </c>
       <c r="N48" s="15" t="n">
-        <v>1310</v>
+        <v>11699</v>
       </c>
       <c r="O48" s="15" t="n">
-        <v>11699</v>
+        <v>7800</v>
       </c>
       <c r="P48" s="15" t="n">
-        <v>7800</v>
+        <v>4435</v>
       </c>
       <c r="Q48" s="15" t="n">
-        <v>4435</v>
+        <v>7182</v>
       </c>
       <c r="R48" s="15" t="n">
-        <v>7182</v>
+        <v>3052</v>
       </c>
       <c r="S48" s="15" t="n">
-        <v>3052</v>
+        <v>12761</v>
       </c>
       <c r="T48" s="15" t="n">
-        <v>12761</v>
+        <v>6583</v>
       </c>
       <c r="U48" s="15" t="n">
-        <v>6583</v>
+        <v>7284</v>
       </c>
       <c r="V48" s="15" t="n">
-        <v>7284</v>
+        <v>21886</v>
       </c>
       <c r="W48" s="15" t="n">
-        <v>21886</v>
+        <v>6867</v>
       </c>
       <c r="X48" s="15" t="n">
-        <v>6867</v>
+        <v>3155</v>
       </c>
       <c r="Y48" s="15" t="n">
-        <v>3155</v>
+        <v>6059</v>
       </c>
       <c r="Z48" s="15" t="n">
-        <v>6059</v>
+        <v>11071</v>
       </c>
       <c r="AA48" s="15" t="n">
-        <v>11071</v>
+        <v>12244</v>
       </c>
       <c r="AB48" s="15" t="n">
-        <v>12244</v>
+        <v>15890</v>
       </c>
       <c r="AC48" s="15" t="n">
-        <v>15890</v>
+        <v>6265</v>
       </c>
       <c r="AD48" s="15" t="n">
-        <v>6265</v>
+        <v>8218</v>
       </c>
       <c r="AE48" s="15" t="n">
-        <v>8218</v>
+        <v>18732</v>
       </c>
       <c r="AF48" s="15" t="n">
-        <v>18732</v>
+        <v>3084</v>
       </c>
       <c r="AG48" s="15" t="n">
-        <v>3084</v>
+        <v>12330</v>
       </c>
       <c r="AH48" s="15" t="n">
-        <v>12330</v>
+        <v>10304</v>
       </c>
       <c r="AI48" s="15" t="n">
-        <v>10304</v>
+        <v>12811</v>
       </c>
       <c r="AJ48" s="15" t="n">
-        <v>12811</v>
+        <v>8226</v>
       </c>
       <c r="AK48" s="15" t="n">
-        <v>8226</v>
+        <v>3305</v>
       </c>
       <c r="AL48" s="15" t="n">
-        <v>3305</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="15" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="BA48" s="15" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="BB48" s="15" t="n">
-        <v>10440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8003,154 +8003,154 @@
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="n">
-        <v>18636</v>
+        <v>9734</v>
       </c>
       <c r="F49" s="16" t="n">
-        <v>9734</v>
+        <v>26452</v>
       </c>
       <c r="G49" s="16" t="n">
-        <v>26452</v>
+        <v>30383</v>
       </c>
       <c r="H49" s="16" t="n">
-        <v>30383</v>
+        <v>27352</v>
       </c>
       <c r="I49" s="16" t="n">
-        <v>27352</v>
+        <v>23779</v>
       </c>
       <c r="J49" s="16" t="n">
-        <v>23779</v>
+        <v>10673</v>
       </c>
       <c r="K49" s="16" t="n">
-        <v>10673</v>
+        <v>22812</v>
       </c>
       <c r="L49" s="16" t="n">
-        <v>22812</v>
+        <v>20583</v>
       </c>
       <c r="M49" s="16" t="n">
-        <v>20583</v>
+        <v>17249</v>
       </c>
       <c r="N49" s="16" t="n">
-        <v>17249</v>
+        <v>29214</v>
       </c>
       <c r="O49" s="16" t="n">
-        <v>29214</v>
+        <v>29791</v>
       </c>
       <c r="P49" s="16" t="n">
-        <v>29791</v>
+        <v>32172</v>
       </c>
       <c r="Q49" s="16" t="n">
-        <v>32172</v>
+        <v>14095</v>
       </c>
       <c r="R49" s="16" t="n">
-        <v>14095</v>
+        <v>20536</v>
       </c>
       <c r="S49" s="16" t="n">
-        <v>20536</v>
+        <v>33584</v>
       </c>
       <c r="T49" s="16" t="n">
-        <v>33584</v>
+        <v>27560</v>
       </c>
       <c r="U49" s="16" t="n">
-        <v>27560</v>
+        <v>3369</v>
       </c>
       <c r="V49" s="16" t="n">
-        <v>3369</v>
+        <v>12018</v>
       </c>
       <c r="W49" s="16" t="n">
-        <v>12018</v>
+        <v>27918</v>
       </c>
       <c r="X49" s="16" t="n">
-        <v>27918</v>
+        <v>55362</v>
       </c>
       <c r="Y49" s="16" t="n">
-        <v>55362</v>
+        <v>46997</v>
       </c>
       <c r="Z49" s="16" t="n">
-        <v>46997</v>
+        <v>30292</v>
       </c>
       <c r="AA49" s="16" t="n">
-        <v>30292</v>
+        <v>55018</v>
       </c>
       <c r="AB49" s="16" t="n">
-        <v>55018</v>
+        <v>37889</v>
       </c>
       <c r="AC49" s="16" t="n">
-        <v>37889</v>
+        <v>8165</v>
       </c>
       <c r="AD49" s="16" t="n">
-        <v>8165</v>
+        <v>1924</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>1924</v>
+        <v>26628</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>26628</v>
+        <v>37970</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>37970</v>
+        <v>23534</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>23534</v>
+        <v>13208</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>13208</v>
+        <v>18296</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>18296</v>
+        <v>17307</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>17307</v>
+        <v>35019</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>35019</v>
+        <v>47921</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>47921</v>
+        <v>78714</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>78714</v>
+        <v>83914</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>83914</v>
+        <v>50157</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>50157</v>
+        <v>38154</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>38154</v>
+        <v>39602</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>39602</v>
+        <v>81801</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>81801</v>
+        <v>38018</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>38018</v>
+        <v>70045</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>70045</v>
+        <v>85706</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>85706</v>
+        <v>98503</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>98503</v>
+        <v>82507</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>82507</v>
+        <v>90430</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>90430</v>
+        <v>111592</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>111592</v>
+        <v>8968</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>8968</v>
+        <v>3308</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>3308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8162,154 +8162,154 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="n">
-        <v>43821</v>
+        <v>15684</v>
       </c>
       <c r="F50" s="15" t="n">
-        <v>15684</v>
+        <v>34823</v>
       </c>
       <c r="G50" s="15" t="n">
-        <v>34823</v>
+        <v>94487</v>
       </c>
       <c r="H50" s="15" t="n">
-        <v>94487</v>
+        <v>107664</v>
       </c>
       <c r="I50" s="15" t="n">
-        <v>107664</v>
+        <v>88165</v>
       </c>
       <c r="J50" s="15" t="n">
-        <v>88165</v>
+        <v>46886</v>
       </c>
       <c r="K50" s="15" t="n">
-        <v>46886</v>
+        <v>82586</v>
       </c>
       <c r="L50" s="15" t="n">
-        <v>82586</v>
+        <v>176356</v>
       </c>
       <c r="M50" s="15" t="n">
-        <v>176356</v>
+        <v>135743</v>
       </c>
       <c r="N50" s="15" t="n">
-        <v>135743</v>
+        <v>83714</v>
       </c>
       <c r="O50" s="15" t="n">
-        <v>83714</v>
+        <v>51229</v>
       </c>
       <c r="P50" s="15" t="n">
-        <v>51229</v>
+        <v>70966</v>
       </c>
       <c r="Q50" s="15" t="n">
-        <v>70966</v>
+        <v>16946</v>
       </c>
       <c r="R50" s="15" t="n">
-        <v>16946</v>
+        <v>144783</v>
       </c>
       <c r="S50" s="15" t="n">
-        <v>144783</v>
+        <v>141973</v>
       </c>
       <c r="T50" s="15" t="n">
-        <v>141973</v>
+        <v>51846</v>
       </c>
       <c r="U50" s="15" t="n">
-        <v>51846</v>
+        <v>127222</v>
       </c>
       <c r="V50" s="15" t="n">
-        <v>127222</v>
+        <v>91556</v>
       </c>
       <c r="W50" s="15" t="n">
-        <v>91556</v>
+        <v>101865</v>
       </c>
       <c r="X50" s="15" t="n">
-        <v>101865</v>
+        <v>134925</v>
       </c>
       <c r="Y50" s="15" t="n">
-        <v>134925</v>
+        <v>51148</v>
       </c>
       <c r="Z50" s="15" t="n">
-        <v>51148</v>
+        <v>96028</v>
       </c>
       <c r="AA50" s="15" t="n">
-        <v>96028</v>
+        <v>60235</v>
       </c>
       <c r="AB50" s="15" t="n">
-        <v>60235</v>
+        <v>87609</v>
       </c>
       <c r="AC50" s="15" t="n">
-        <v>87609</v>
+        <v>75176</v>
       </c>
       <c r="AD50" s="15" t="n">
-        <v>75176</v>
+        <v>86456</v>
       </c>
       <c r="AE50" s="15" t="n">
-        <v>86456</v>
+        <v>125130</v>
       </c>
       <c r="AF50" s="15" t="n">
-        <v>125130</v>
+        <v>136762</v>
       </c>
       <c r="AG50" s="15" t="n">
-        <v>136762</v>
+        <v>108003</v>
       </c>
       <c r="AH50" s="15" t="n">
-        <v>108003</v>
+        <v>250018</v>
       </c>
       <c r="AI50" s="15" t="n">
-        <v>250018</v>
+        <v>252619</v>
       </c>
       <c r="AJ50" s="15" t="n">
-        <v>252619</v>
+        <v>273283</v>
       </c>
       <c r="AK50" s="15" t="n">
-        <v>273283</v>
+        <v>184663</v>
       </c>
       <c r="AL50" s="15" t="n">
-        <v>184663</v>
+        <v>325885</v>
       </c>
       <c r="AM50" s="15" t="n">
-        <v>325885</v>
+        <v>315309</v>
       </c>
       <c r="AN50" s="15" t="n">
-        <v>315309</v>
+        <v>341718</v>
       </c>
       <c r="AO50" s="15" t="n">
-        <v>341718</v>
+        <v>291182</v>
       </c>
       <c r="AP50" s="15" t="n">
-        <v>291182</v>
+        <v>121577</v>
       </c>
       <c r="AQ50" s="15" t="n">
-        <v>121577</v>
+        <v>259466</v>
       </c>
       <c r="AR50" s="15" t="n">
-        <v>259466</v>
+        <v>221472</v>
       </c>
       <c r="AS50" s="15" t="n">
-        <v>221472</v>
+        <v>251793</v>
       </c>
       <c r="AT50" s="15" t="n">
-        <v>251793</v>
+        <v>431241</v>
       </c>
       <c r="AU50" s="15" t="n">
-        <v>431241</v>
+        <v>499494</v>
       </c>
       <c r="AV50" s="15" t="n">
-        <v>499494</v>
+        <v>249017</v>
       </c>
       <c r="AW50" s="15" t="n">
-        <v>249017</v>
+        <v>166718</v>
       </c>
       <c r="AX50" s="15" t="n">
-        <v>166718</v>
+        <v>277292</v>
       </c>
       <c r="AY50" s="15" t="n">
-        <v>277292</v>
+        <v>646039</v>
       </c>
       <c r="AZ50" s="15" t="n">
-        <v>646039</v>
+        <v>571142</v>
       </c>
       <c r="BA50" s="15" t="n">
-        <v>571142</v>
+        <v>235792</v>
       </c>
       <c r="BB50" s="15" t="n">
-        <v>235792</v>
+        <v>108204</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,154 +8321,154 @@
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16" t="n">
-        <v>136187</v>
+        <v>49587</v>
       </c>
       <c r="F51" s="16" t="n">
-        <v>49587</v>
+        <v>101753</v>
       </c>
       <c r="G51" s="16" t="n">
-        <v>101753</v>
+        <v>132542</v>
       </c>
       <c r="H51" s="16" t="n">
-        <v>132542</v>
+        <v>137327</v>
       </c>
       <c r="I51" s="16" t="n">
-        <v>137327</v>
+        <v>146408</v>
       </c>
       <c r="J51" s="16" t="n">
-        <v>146408</v>
+        <v>118760</v>
       </c>
       <c r="K51" s="16" t="n">
-        <v>118760</v>
+        <v>210550</v>
       </c>
       <c r="L51" s="16" t="n">
-        <v>210550</v>
+        <v>198717</v>
       </c>
       <c r="M51" s="16" t="n">
-        <v>198717</v>
+        <v>182820</v>
       </c>
       <c r="N51" s="16" t="n">
-        <v>182820</v>
+        <v>120183</v>
       </c>
       <c r="O51" s="16" t="n">
-        <v>120183</v>
+        <v>215269</v>
       </c>
       <c r="P51" s="16" t="n">
-        <v>215269</v>
+        <v>188252</v>
       </c>
       <c r="Q51" s="16" t="n">
-        <v>188252</v>
+        <v>107253</v>
       </c>
       <c r="R51" s="16" t="n">
-        <v>107253</v>
+        <v>157406</v>
       </c>
       <c r="S51" s="16" t="n">
-        <v>157406</v>
+        <v>207762</v>
       </c>
       <c r="T51" s="16" t="n">
-        <v>207762</v>
+        <v>253648</v>
       </c>
       <c r="U51" s="16" t="n">
-        <v>253648</v>
+        <v>245077</v>
       </c>
       <c r="V51" s="16" t="n">
-        <v>245077</v>
+        <v>176154</v>
       </c>
       <c r="W51" s="16" t="n">
-        <v>176154</v>
+        <v>249502</v>
       </c>
       <c r="X51" s="16" t="n">
-        <v>249502</v>
+        <v>242626</v>
       </c>
       <c r="Y51" s="16" t="n">
-        <v>242626</v>
+        <v>303179</v>
       </c>
       <c r="Z51" s="16" t="n">
-        <v>303179</v>
+        <v>309558</v>
       </c>
       <c r="AA51" s="16" t="n">
-        <v>309558</v>
+        <v>307068</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>307068</v>
+        <v>321960</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>321960</v>
+        <v>213292</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>213292</v>
+        <v>211814</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>211814</v>
+        <v>256094</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>256094</v>
+        <v>281781</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>281781</v>
+        <v>404327</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>404327</v>
+        <v>331528</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>331528</v>
+        <v>387799</v>
       </c>
       <c r="AJ51" s="16" t="n">
-        <v>387799</v>
+        <v>448955</v>
       </c>
       <c r="AK51" s="16" t="n">
-        <v>448955</v>
+        <v>510303</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>510303</v>
+        <v>351685</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>351685</v>
+        <v>378281</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>378281</v>
+        <v>380513</v>
       </c>
       <c r="AO51" s="16" t="n">
-        <v>380513</v>
+        <v>278526</v>
       </c>
       <c r="AP51" s="16" t="n">
-        <v>278526</v>
+        <v>272083</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>272083</v>
+        <v>418111</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>418111</v>
+        <v>475822</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>475822</v>
+        <v>722822</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>722822</v>
+        <v>840834</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>840834</v>
+        <v>619811</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>619811</v>
+        <v>887571</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>887571</v>
+        <v>828586</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>828586</v>
+        <v>867996</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>867996</v>
+        <v>885423</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>885423</v>
+        <v>714765</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>714765</v>
+        <v>841850</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>841850</v>
+        <v>351573</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,154 +8480,154 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="n">
-        <v>45425</v>
+        <v>22368</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>22368</v>
+        <v>36065</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>36065</v>
+        <v>30690</v>
       </c>
       <c r="H52" s="15" t="n">
-        <v>30690</v>
+        <v>22773</v>
       </c>
       <c r="I52" s="15" t="n">
-        <v>22773</v>
+        <v>40305</v>
       </c>
       <c r="J52" s="15" t="n">
-        <v>40305</v>
+        <v>44682</v>
       </c>
       <c r="K52" s="15" t="n">
-        <v>44682</v>
+        <v>30942</v>
       </c>
       <c r="L52" s="15" t="n">
-        <v>30942</v>
+        <v>46901</v>
       </c>
       <c r="M52" s="15" t="n">
-        <v>46901</v>
+        <v>63613</v>
       </c>
       <c r="N52" s="15" t="n">
-        <v>63613</v>
+        <v>52797</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>52797</v>
+        <v>58228</v>
       </c>
       <c r="P52" s="15" t="n">
-        <v>58228</v>
+        <v>56899</v>
       </c>
       <c r="Q52" s="15" t="n">
-        <v>56899</v>
+        <v>49291</v>
       </c>
       <c r="R52" s="15" t="n">
-        <v>49291</v>
+        <v>60657</v>
       </c>
       <c r="S52" s="15" t="n">
-        <v>60657</v>
+        <v>88687</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>88687</v>
+        <v>121104</v>
       </c>
       <c r="U52" s="15" t="n">
-        <v>121104</v>
+        <v>71860</v>
       </c>
       <c r="V52" s="15" t="n">
-        <v>71860</v>
+        <v>24687</v>
       </c>
       <c r="W52" s="15" t="n">
-        <v>24687</v>
+        <v>38703</v>
       </c>
       <c r="X52" s="15" t="n">
-        <v>38703</v>
+        <v>39013</v>
       </c>
       <c r="Y52" s="15" t="n">
-        <v>39013</v>
+        <v>70002</v>
       </c>
       <c r="Z52" s="15" t="n">
-        <v>70002</v>
+        <v>57686</v>
       </c>
       <c r="AA52" s="15" t="n">
-        <v>57686</v>
+        <v>43450</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>43450</v>
+        <v>31531</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>31531</v>
+        <v>10061</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>10061</v>
+        <v>7264</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>7264</v>
+        <v>39398</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>39398</v>
+        <v>44890</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>44890</v>
+        <v>61726</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>61726</v>
+        <v>42945</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>42945</v>
+        <v>68513</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>68513</v>
+        <v>52629</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>52629</v>
+        <v>69750</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>69750</v>
+        <v>78138</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>78138</v>
+        <v>63318</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>63318</v>
+        <v>83421</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>83421</v>
+        <v>26849</v>
       </c>
       <c r="AP52" s="15" t="n">
-        <v>26849</v>
+        <v>27518</v>
       </c>
       <c r="AQ52" s="15" t="n">
-        <v>27518</v>
+        <v>42620</v>
       </c>
       <c r="AR52" s="15" t="n">
-        <v>42620</v>
+        <v>31350</v>
       </c>
       <c r="AS52" s="15" t="n">
-        <v>31350</v>
+        <v>60449</v>
       </c>
       <c r="AT52" s="15" t="n">
-        <v>60449</v>
+        <v>65166</v>
       </c>
       <c r="AU52" s="15" t="n">
-        <v>65166</v>
+        <v>86396</v>
       </c>
       <c r="AV52" s="15" t="n">
-        <v>86396</v>
+        <v>86620</v>
       </c>
       <c r="AW52" s="15" t="n">
-        <v>86620</v>
+        <v>100847</v>
       </c>
       <c r="AX52" s="15" t="n">
-        <v>100847</v>
+        <v>74810</v>
       </c>
       <c r="AY52" s="15" t="n">
-        <v>74810</v>
+        <v>125427</v>
       </c>
       <c r="AZ52" s="15" t="n">
-        <v>125427</v>
+        <v>56886</v>
       </c>
       <c r="BA52" s="15" t="n">
-        <v>56886</v>
+        <v>124992</v>
       </c>
       <c r="BB52" s="15" t="n">
-        <v>124992</v>
+        <v>64472</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,154 +8639,154 @@
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16" t="n">
-        <v>8866</v>
+        <v>0</v>
       </c>
       <c r="F53" s="16" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="G53" s="16" t="n">
-        <v>48224</v>
+        <v>64198</v>
       </c>
       <c r="H53" s="16" t="n">
-        <v>64198</v>
+        <v>86211</v>
       </c>
       <c r="I53" s="16" t="n">
-        <v>86211</v>
+        <v>63896</v>
       </c>
       <c r="J53" s="16" t="n">
-        <v>63896</v>
+        <v>101743</v>
       </c>
       <c r="K53" s="16" t="n">
-        <v>101743</v>
+        <v>104824</v>
       </c>
       <c r="L53" s="16" t="n">
-        <v>104824</v>
+        <v>71524</v>
       </c>
       <c r="M53" s="16" t="n">
-        <v>71524</v>
+        <v>109531</v>
       </c>
       <c r="N53" s="16" t="n">
-        <v>109531</v>
+        <v>112396</v>
       </c>
       <c r="O53" s="16" t="n">
-        <v>112396</v>
+        <v>90026</v>
       </c>
       <c r="P53" s="16" t="n">
-        <v>90026</v>
+        <v>116129</v>
       </c>
       <c r="Q53" s="16" t="n">
-        <v>116129</v>
+        <v>18054</v>
       </c>
       <c r="R53" s="16" t="n">
-        <v>18054</v>
+        <v>113921</v>
       </c>
       <c r="S53" s="16" t="n">
-        <v>113921</v>
+        <v>44196</v>
       </c>
       <c r="T53" s="16" t="n">
-        <v>44196</v>
+        <v>67348</v>
       </c>
       <c r="U53" s="16" t="n">
-        <v>67348</v>
+        <v>371649</v>
       </c>
       <c r="V53" s="16" t="n">
-        <v>371649</v>
+        <v>357070</v>
       </c>
       <c r="W53" s="16" t="n">
-        <v>357070</v>
+        <v>463536</v>
       </c>
       <c r="X53" s="16" t="n">
-        <v>463536</v>
+        <v>352680</v>
       </c>
       <c r="Y53" s="16" t="n">
-        <v>352680</v>
+        <v>423361</v>
       </c>
       <c r="Z53" s="16" t="n">
-        <v>423361</v>
+        <v>352270</v>
       </c>
       <c r="AA53" s="16" t="n">
-        <v>352270</v>
+        <v>368088</v>
       </c>
       <c r="AB53" s="16" t="n">
-        <v>368088</v>
+        <v>315172</v>
       </c>
       <c r="AC53" s="16" t="n">
-        <v>315172</v>
+        <v>271136</v>
       </c>
       <c r="AD53" s="16" t="n">
-        <v>271136</v>
+        <v>312893</v>
       </c>
       <c r="AE53" s="16" t="n">
-        <v>312893</v>
+        <v>398750</v>
       </c>
       <c r="AF53" s="16" t="n">
-        <v>398750</v>
+        <v>468841</v>
       </c>
       <c r="AG53" s="16" t="n">
-        <v>468841</v>
+        <v>435975</v>
       </c>
       <c r="AH53" s="16" t="n">
-        <v>435975</v>
+        <v>475898</v>
       </c>
       <c r="AI53" s="16" t="n">
-        <v>475898</v>
+        <v>499298</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>499298</v>
+        <v>299531</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>299531</v>
+        <v>377441</v>
       </c>
       <c r="AL53" s="16" t="n">
-        <v>377441</v>
+        <v>406445</v>
       </c>
       <c r="AM53" s="16" t="n">
-        <v>406445</v>
+        <v>343895</v>
       </c>
       <c r="AN53" s="16" t="n">
-        <v>343895</v>
+        <v>348726</v>
       </c>
       <c r="AO53" s="16" t="n">
-        <v>348726</v>
+        <v>421802</v>
       </c>
       <c r="AP53" s="16" t="n">
-        <v>421802</v>
+        <v>163350</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>163350</v>
+        <v>319691</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>319691</v>
+        <v>268127</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>268127</v>
+        <v>304730</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>304730</v>
+        <v>484046</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>484046</v>
+        <v>376738</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>376738</v>
+        <v>251197</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>251197</v>
+        <v>202955</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>202955</v>
+        <v>144965</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>144965</v>
+        <v>236490</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>236490</v>
+        <v>106832</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>106832</v>
+        <v>284105</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>284105</v>
+        <v>84323</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,8 +8899,8 @@
       <c r="S55" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T55" s="20" t="s">
-        <v>66</v>
+      <c r="T55" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U55" s="23" t="n">
         <v>0</v>
@@ -9118,8 +9118,8 @@
       <c r="T57" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U57" s="15" t="s">
-        <v>66</v>
+      <c r="U57" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="15" t="n">
         <v>0</v>
@@ -9131,34 +9131,34 @@
         <v>0</v>
       </c>
       <c r="Y57" s="15" t="n">
-        <v>0</v>
+        <v>-440</v>
       </c>
       <c r="Z57" s="15" t="n">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="15" t="n">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="AB57" s="15" t="n">
-        <v>-62</v>
+        <v>-2604</v>
       </c>
       <c r="AC57" s="15" t="n">
-        <v>-2604</v>
+        <v>-7</v>
       </c>
       <c r="AD57" s="15" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="15" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="AG57" s="15" t="n">
-        <v>-16</v>
+        <v>-550</v>
       </c>
       <c r="AH57" s="15" t="n">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="15" t="n">
         <v>0</v>
@@ -9181,14 +9181,14 @@
       <c r="AO57" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP57" s="15" t="n">
-        <v>0</v>
+      <c r="AP57" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="AQ57" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR57" s="15" t="s">
-        <v>66</v>
+      <c r="AR57" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AS57" s="15" t="n">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>0</v>
       </c>
       <c r="AU57" s="15" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="AV57" s="15" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="15" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AX57" s="15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AZ57" s="15" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="BA57" s="15" t="n">
-        <v>-300</v>
-      </c>
-      <c r="BB57" s="15" t="n">
         <v>-3311</v>
+      </c>
+      <c r="BB57" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9274,71 +9274,71 @@
       <c r="S58" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T58" s="16" t="s">
-        <v>66</v>
+      <c r="T58" s="16" t="n">
+        <v>-5796</v>
       </c>
       <c r="U58" s="16" t="n">
-        <v>-5796</v>
+        <v>-66048</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>-66048</v>
+        <v>-13</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>-13</v>
+        <v>-4881</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>-4881</v>
+        <v>-4604</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>-4604</v>
+        <v>-4336</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>-4336</v>
+        <v>-10494</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>-10494</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>0</v>
+        <v>-5795</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>-5795</v>
+        <v>-5</v>
       </c>
       <c r="AD58" s="16" t="n">
+        <v>-1938</v>
+      </c>
+      <c r="AE58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="16" t="n">
         <v>-5</v>
       </c>
-      <c r="AE58" s="16" t="n">
-        <v>-1938</v>
-      </c>
-      <c r="AF58" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AG58" s="16" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>-15</v>
+        <v>-646</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>-646</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>0</v>
+        <v>-1266</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>-1266</v>
+        <v>-1</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>0</v>
+        <v>-3618</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>-3618</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="16" t="n">
         <v>0</v>
@@ -9356,16 +9356,16 @@
         <v>0</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>-11</v>
+        <v>-5542</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>-5542</v>
+        <v>-841</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>-841</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="16" t="n">
         <v>0</v>
@@ -9374,10 +9374,10 @@
         <v>0</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>0</v>
+        <v>-42012</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>-42012</v>
+        <v>-1047</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,38 +9433,38 @@
       <c r="S59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T59" s="15" t="s">
-        <v>66</v>
+      <c r="T59" s="15" t="n">
+        <v>-913</v>
       </c>
       <c r="U59" s="15" t="n">
-        <v>-913</v>
+        <v>-3804</v>
       </c>
       <c r="V59" s="15" t="n">
-        <v>-3804</v>
+        <v>-4</v>
       </c>
       <c r="W59" s="15" t="n">
-        <v>-4</v>
+        <v>-10111</v>
       </c>
       <c r="X59" s="15" t="n">
-        <v>-10111</v>
+        <v>-1315</v>
       </c>
       <c r="Y59" s="15" t="n">
-        <v>-1315</v>
+        <v>-2368</v>
       </c>
       <c r="Z59" s="15" t="n">
-        <v>-2368</v>
+        <v>-2308</v>
       </c>
       <c r="AA59" s="15" t="n">
-        <v>-2308</v>
+        <v>-238</v>
       </c>
       <c r="AB59" s="15" t="n">
-        <v>-238</v>
+        <v>-14980</v>
       </c>
       <c r="AC59" s="15" t="n">
-        <v>-14980</v>
+        <v>-1935</v>
       </c>
       <c r="AD59" s="15" t="n">
-        <v>-1935</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="15" t="n">
         <v>0</v>
@@ -9473,70 +9473,70 @@
         <v>0</v>
       </c>
       <c r="AG59" s="15" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AH59" s="15" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="AI59" s="15" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="15" t="n">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="AK59" s="15" t="n">
-        <v>-198</v>
+        <v>-1</v>
       </c>
       <c r="AL59" s="15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="15" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AN59" s="15" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP59" s="15" t="n">
-        <v>0</v>
+      <c r="AP59" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="AQ59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR59" s="15" t="s">
-        <v>66</v>
+      <c r="AR59" s="15" t="n">
+        <v>-2214</v>
       </c>
       <c r="AS59" s="15" t="n">
-        <v>-2214</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AU59" s="15" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AV59" s="15" t="n">
-        <v>-8</v>
+        <v>-4300</v>
       </c>
       <c r="AW59" s="15" t="n">
-        <v>-4300</v>
+        <v>-620</v>
       </c>
       <c r="AX59" s="15" t="n">
-        <v>-620</v>
+        <v>-4774</v>
       </c>
       <c r="AY59" s="15" t="n">
-        <v>-4774</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="15" t="n">
-        <v>0</v>
+        <v>-9378</v>
       </c>
       <c r="BA59" s="15" t="n">
-        <v>-9378</v>
+        <v>-2349</v>
       </c>
       <c r="BB59" s="15" t="n">
-        <v>-2349</v>
+        <v>-2831</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,92 +9592,92 @@
       <c r="S60" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T60" s="16" t="s">
-        <v>66</v>
+      <c r="T60" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>0</v>
+        <v>-18118</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>-18118</v>
+        <v>0</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>0</v>
+        <v>-5161</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>-5161</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>0</v>
+        <v>-1013</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>-1013</v>
+        <v>-1797</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>-1797</v>
+        <v>-4</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>-4</v>
+        <v>-6620</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>-6620</v>
+        <v>-2</v>
       </c>
       <c r="AD60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="16" t="n">
+        <v>-3732</v>
+      </c>
+      <c r="AF60" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG60" s="16" t="n">
+        <v>-733</v>
+      </c>
+      <c r="AH60" s="16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AI60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="16" t="n">
+        <v>-68</v>
+      </c>
+      <c r="AL60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="16" t="n">
+        <v>-22</v>
+      </c>
+      <c r="AQ60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="16" t="n">
         <v>-2</v>
       </c>
-      <c r="AE60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="16" t="n">
-        <v>-3732</v>
-      </c>
-      <c r="AG60" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH60" s="16" t="n">
-        <v>-733</v>
-      </c>
-      <c r="AI60" s="16" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AJ60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="16" t="n">
-        <v>-68</v>
-      </c>
-      <c r="AM60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="16" t="n">
-        <v>-22</v>
-      </c>
-      <c r="AR60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT60" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AV60" s="16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="16" t="n">
         <v>0</v>
@@ -9751,8 +9751,8 @@
       <c r="S61" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T61" s="15" t="s">
-        <v>66</v>
+      <c r="T61" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U61" s="15" t="n">
         <v>0</v>
@@ -9779,52 +9779,52 @@
         <v>0</v>
       </c>
       <c r="AC61" s="15" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD61" s="15" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="15" t="n">
-        <v>0</v>
+        <v>-104845</v>
       </c>
       <c r="AG61" s="15" t="n">
-        <v>-104845</v>
+        <v>-16</v>
       </c>
       <c r="AH61" s="15" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="15" t="n">
-        <v>0</v>
+        <v>-6051</v>
       </c>
       <c r="AJ61" s="15" t="n">
-        <v>-6051</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="15" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AL61" s="15" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="AM61" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="15" t="n">
+        <v>-56226</v>
+      </c>
+      <c r="AO61" s="15" t="n">
         <v>-7</v>
       </c>
-      <c r="AN61" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO61" s="15" t="n">
-        <v>-56226</v>
-      </c>
       <c r="AP61" s="15" t="n">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="AQ61" s="15" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="15" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AS61" s="15" t="n">
         <v>-8</v>
@@ -9833,28 +9833,28 @@
         <v>-8</v>
       </c>
       <c r="AU61" s="15" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="15" t="n">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AW61" s="15" t="n">
-        <v>-113</v>
+        <v>-112</v>
       </c>
       <c r="AX61" s="15" t="n">
-        <v>-112</v>
+        <v>-13</v>
       </c>
       <c r="AY61" s="15" t="n">
-        <v>-13</v>
+        <v>-54739</v>
       </c>
       <c r="AZ61" s="15" t="n">
-        <v>-54739</v>
+        <v>-114</v>
       </c>
       <c r="BA61" s="15" t="n">
-        <v>-114</v>
+        <v>-29</v>
       </c>
       <c r="BB61" s="15" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,110 +9910,110 @@
       <c r="S62" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T62" s="22" t="s">
-        <v>66</v>
+      <c r="T62" s="24" t="n">
+        <v>-6709</v>
       </c>
       <c r="U62" s="24" t="n">
-        <v>-6709</v>
+        <v>-87970</v>
       </c>
       <c r="V62" s="24" t="n">
-        <v>-87970</v>
+        <v>-17</v>
       </c>
       <c r="W62" s="24" t="n">
-        <v>-17</v>
+        <v>-20153</v>
       </c>
       <c r="X62" s="24" t="n">
-        <v>-20153</v>
+        <v>-5919</v>
       </c>
       <c r="Y62" s="24" t="n">
-        <v>-5919</v>
+        <v>-8157</v>
       </c>
       <c r="Z62" s="24" t="n">
-        <v>-8157</v>
+        <v>-14599</v>
       </c>
       <c r="AA62" s="24" t="n">
-        <v>-14599</v>
+        <v>-304</v>
       </c>
       <c r="AB62" s="24" t="n">
-        <v>-304</v>
+        <v>-29999</v>
       </c>
       <c r="AC62" s="24" t="n">
-        <v>-29999</v>
+        <v>-1981</v>
       </c>
       <c r="AD62" s="24" t="n">
-        <v>-1981</v>
+        <v>-1938</v>
       </c>
       <c r="AE62" s="24" t="n">
-        <v>-1938</v>
+        <v>-3732</v>
       </c>
       <c r="AF62" s="24" t="n">
-        <v>-3732</v>
+        <v>-104867</v>
       </c>
       <c r="AG62" s="24" t="n">
-        <v>-104867</v>
+        <v>-1321</v>
       </c>
       <c r="AH62" s="24" t="n">
-        <v>-1321</v>
+        <v>-674</v>
       </c>
       <c r="AI62" s="24" t="n">
-        <v>-674</v>
+        <v>-6051</v>
       </c>
       <c r="AJ62" s="24" t="n">
-        <v>-6051</v>
+        <v>-1464</v>
       </c>
       <c r="AK62" s="24" t="n">
-        <v>-1464</v>
+        <v>-84</v>
       </c>
       <c r="AL62" s="24" t="n">
-        <v>-84</v>
+        <v>-7</v>
       </c>
       <c r="AM62" s="24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AN62" s="24" t="n">
+        <v>-59844</v>
+      </c>
+      <c r="AO62" s="24" t="n">
         <v>-7</v>
       </c>
-      <c r="AN62" s="24" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AO62" s="24" t="n">
-        <v>-59844</v>
-      </c>
       <c r="AP62" s="24" t="n">
-        <v>-7</v>
+        <v>-47</v>
       </c>
       <c r="AQ62" s="24" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="24" t="n">
-        <v>0</v>
+        <v>-2222</v>
       </c>
       <c r="AS62" s="24" t="n">
-        <v>-2222</v>
+        <v>-8</v>
       </c>
       <c r="AT62" s="24" t="n">
         <v>-8</v>
       </c>
       <c r="AU62" s="24" t="n">
-        <v>-8</v>
+        <v>-39</v>
       </c>
       <c r="AV62" s="24" t="n">
-        <v>-39</v>
+        <v>-9955</v>
       </c>
       <c r="AW62" s="24" t="n">
-        <v>-9955</v>
+        <v>-1576</v>
       </c>
       <c r="AX62" s="24" t="n">
-        <v>-1576</v>
+        <v>-4787</v>
       </c>
       <c r="AY62" s="24" t="n">
-        <v>-4787</v>
+        <v>-54739</v>
       </c>
       <c r="AZ62" s="24" t="n">
-        <v>-54739</v>
+        <v>-9792</v>
       </c>
       <c r="BA62" s="24" t="n">
-        <v>-9792</v>
+        <v>-47701</v>
       </c>
       <c r="BB62" s="24" t="n">
-        <v>-47701</v>
+        <v>-3906</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10126,110 +10126,110 @@
       <c r="S64" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T64" s="15" t="s">
-        <v>66</v>
+      <c r="T64" s="15" t="n">
+        <v>-86978</v>
       </c>
       <c r="U64" s="15" t="n">
-        <v>-86978</v>
+        <v>-50954</v>
       </c>
       <c r="V64" s="15" t="n">
-        <v>-50954</v>
+        <v>-67885</v>
       </c>
       <c r="W64" s="15" t="n">
-        <v>-67885</v>
+        <v>-156310</v>
       </c>
       <c r="X64" s="15" t="n">
-        <v>-156310</v>
+        <v>-104949</v>
       </c>
       <c r="Y64" s="15" t="n">
-        <v>-104949</v>
+        <v>-192370</v>
       </c>
       <c r="Z64" s="15" t="n">
-        <v>-192370</v>
+        <v>-92205</v>
       </c>
       <c r="AA64" s="15" t="n">
-        <v>-92205</v>
+        <v>-140749</v>
       </c>
       <c r="AB64" s="15" t="n">
-        <v>-140749</v>
+        <v>-83028</v>
       </c>
       <c r="AC64" s="15" t="n">
-        <v>-83028</v>
+        <v>-72288</v>
       </c>
       <c r="AD64" s="15" t="n">
-        <v>-72288</v>
+        <v>-20022</v>
       </c>
       <c r="AE64" s="15" t="n">
-        <v>-20022</v>
+        <v>-114110</v>
       </c>
       <c r="AF64" s="15" t="n">
-        <v>-114110</v>
+        <v>-98696</v>
       </c>
       <c r="AG64" s="15" t="n">
-        <v>-98696</v>
+        <v>-123899</v>
       </c>
       <c r="AH64" s="15" t="n">
-        <v>-123899</v>
+        <v>-170497</v>
       </c>
       <c r="AI64" s="15" t="n">
-        <v>-170497</v>
+        <v>-183424</v>
       </c>
       <c r="AJ64" s="15" t="n">
-        <v>-183424</v>
+        <v>-77286</v>
       </c>
       <c r="AK64" s="15" t="n">
-        <v>-77286</v>
+        <v>-145332</v>
       </c>
       <c r="AL64" s="15" t="n">
-        <v>-145332</v>
+        <v>-174387</v>
       </c>
       <c r="AM64" s="15" t="n">
-        <v>-174387</v>
+        <v>-142588</v>
       </c>
       <c r="AN64" s="15" t="n">
-        <v>-142588</v>
+        <v>-135103</v>
       </c>
       <c r="AO64" s="15" t="n">
-        <v>-135103</v>
+        <v>-473447</v>
       </c>
       <c r="AP64" s="15" t="n">
-        <v>-473447</v>
+        <v>-38751</v>
       </c>
       <c r="AQ64" s="15" t="n">
-        <v>-38751</v>
+        <v>-131884</v>
       </c>
       <c r="AR64" s="15" t="n">
-        <v>-131884</v>
+        <v>-288395</v>
       </c>
       <c r="AS64" s="15" t="n">
-        <v>-288395</v>
+        <v>-181029</v>
       </c>
       <c r="AT64" s="15" t="n">
-        <v>-181029</v>
+        <v>-320226</v>
       </c>
       <c r="AU64" s="15" t="n">
-        <v>-320226</v>
+        <v>-303600</v>
       </c>
       <c r="AV64" s="15" t="n">
-        <v>-303600</v>
+        <v>-139930</v>
       </c>
       <c r="AW64" s="15" t="n">
-        <v>-139930</v>
+        <v>-79992</v>
       </c>
       <c r="AX64" s="15" t="n">
-        <v>-79992</v>
+        <v>-153348</v>
       </c>
       <c r="AY64" s="15" t="n">
-        <v>-153348</v>
+        <v>-198678</v>
       </c>
       <c r="AZ64" s="15" t="n">
-        <v>-198678</v>
+        <v>-239996</v>
       </c>
       <c r="BA64" s="15" t="n">
-        <v>-239996</v>
+        <v>-283851</v>
       </c>
       <c r="BB64" s="15" t="n">
-        <v>-283851</v>
+        <v>-2396</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10239,154 +10239,154 @@
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24" t="n">
-        <v>261002</v>
+        <v>102673</v>
       </c>
       <c r="F65" s="24" t="n">
-        <v>102673</v>
+        <v>249759</v>
       </c>
       <c r="G65" s="24" t="n">
-        <v>249759</v>
+        <v>365981</v>
       </c>
       <c r="H65" s="24" t="n">
-        <v>365981</v>
+        <v>385958</v>
       </c>
       <c r="I65" s="24" t="n">
-        <v>385958</v>
+        <v>363974</v>
       </c>
       <c r="J65" s="24" t="n">
-        <v>363974</v>
+        <v>330622</v>
       </c>
       <c r="K65" s="24" t="n">
-        <v>330622</v>
+        <v>460692</v>
       </c>
       <c r="L65" s="24" t="n">
-        <v>460692</v>
+        <v>516742</v>
       </c>
       <c r="M65" s="24" t="n">
-        <v>516742</v>
+        <v>510266</v>
       </c>
       <c r="N65" s="24" t="n">
-        <v>510266</v>
+        <v>410003</v>
       </c>
       <c r="O65" s="24" t="n">
-        <v>410003</v>
+        <v>452343</v>
       </c>
       <c r="P65" s="24" t="n">
-        <v>452343</v>
+        <v>468853</v>
       </c>
       <c r="Q65" s="24" t="n">
-        <v>468853</v>
+        <v>212821</v>
       </c>
       <c r="R65" s="24" t="n">
-        <v>212821</v>
+        <v>500355</v>
       </c>
       <c r="S65" s="24" t="n">
-        <v>500355</v>
+        <v>528963</v>
       </c>
       <c r="T65" s="24" t="n">
-        <v>528963</v>
+        <v>434402</v>
       </c>
       <c r="U65" s="24" t="n">
-        <v>434402</v>
+        <v>687537</v>
       </c>
       <c r="V65" s="24" t="n">
-        <v>687537</v>
+        <v>615469</v>
       </c>
       <c r="W65" s="24" t="n">
-        <v>615469</v>
+        <v>711928</v>
       </c>
       <c r="X65" s="24" t="n">
-        <v>711928</v>
+        <v>716893</v>
       </c>
       <c r="Y65" s="24" t="n">
-        <v>716893</v>
+        <v>700219</v>
       </c>
       <c r="Z65" s="24" t="n">
-        <v>700219</v>
+        <v>750101</v>
       </c>
       <c r="AA65" s="24" t="n">
-        <v>750101</v>
+        <v>705050</v>
       </c>
       <c r="AB65" s="24" t="n">
-        <v>705050</v>
+        <v>697024</v>
       </c>
       <c r="AC65" s="24" t="n">
-        <v>697024</v>
+        <v>509826</v>
       </c>
       <c r="AD65" s="24" t="n">
-        <v>509826</v>
+        <v>606609</v>
       </c>
       <c r="AE65" s="24" t="n">
-        <v>606609</v>
+        <v>746890</v>
       </c>
       <c r="AF65" s="24" t="n">
-        <v>746890</v>
+        <v>769765</v>
       </c>
       <c r="AG65" s="24" t="n">
-        <v>769765</v>
+        <v>920675</v>
       </c>
       <c r="AH65" s="24" t="n">
-        <v>920675</v>
+        <v>952730</v>
       </c>
       <c r="AI65" s="24" t="n">
-        <v>952730</v>
+        <v>1049861</v>
       </c>
       <c r="AJ65" s="24" t="n">
-        <v>1049861</v>
+        <v>1021181</v>
       </c>
       <c r="AK65" s="24" t="n">
-        <v>1021181</v>
+        <v>1035065</v>
       </c>
       <c r="AL65" s="24" t="n">
-        <v>1035065</v>
+        <v>1035680</v>
       </c>
       <c r="AM65" s="24" t="n">
-        <v>1035680</v>
+        <v>1036920</v>
       </c>
       <c r="AN65" s="24" t="n">
-        <v>1036920</v>
+        <v>1043345</v>
       </c>
       <c r="AO65" s="24" t="n">
-        <v>1043345</v>
+        <v>595062</v>
       </c>
       <c r="AP65" s="24" t="n">
-        <v>595062</v>
+        <v>583884</v>
       </c>
       <c r="AQ65" s="24" t="n">
-        <v>583884</v>
+        <v>947606</v>
       </c>
       <c r="AR65" s="24" t="n">
-        <v>947606</v>
+        <v>787955</v>
       </c>
       <c r="AS65" s="24" t="n">
-        <v>787955</v>
+        <v>1196775</v>
       </c>
       <c r="AT65" s="24" t="n">
-        <v>1196775</v>
+        <v>1571098</v>
       </c>
       <c r="AU65" s="24" t="n">
-        <v>1571098</v>
+        <v>1364506</v>
       </c>
       <c r="AV65" s="24" t="n">
-        <v>1364506</v>
+        <v>1423023</v>
       </c>
       <c r="AW65" s="24" t="n">
-        <v>1423023</v>
+        <v>1300045</v>
       </c>
       <c r="AX65" s="24" t="n">
-        <v>1300045</v>
+        <v>1297358</v>
       </c>
       <c r="AY65" s="24" t="n">
-        <v>1297358</v>
+        <v>1751554</v>
       </c>
       <c r="AZ65" s="24" t="n">
-        <v>1751554</v>
+        <v>1208805</v>
       </c>
       <c r="BA65" s="24" t="n">
-        <v>1208805</v>
+        <v>1168935</v>
       </c>
       <c r="BB65" s="24" t="n">
-        <v>1168935</v>
+        <v>602270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,107 +10832,107 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>192898</v>
+        <v>160850</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>160850</v>
+        <v>108775</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>108775</v>
+        <v>119904</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>119904</v>
+        <v>131264</v>
       </c>
       <c r="I72" s="15" t="n">
-        <v>131264</v>
+        <v>89540</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>89540</v>
+        <v>204623</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>204623</v>
+        <v>187042</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>187042</v>
+        <v>86734</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>86734</v>
+        <v>101629</v>
       </c>
       <c r="N72" s="15" t="n">
-        <v>101629</v>
+        <v>127942</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>127942</v>
+        <v>115916</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>115916</v>
+        <v>68315</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>68315</v>
+        <v>137113</v>
       </c>
       <c r="R72" s="15" t="n">
-        <v>137113</v>
+        <v>234769</v>
       </c>
       <c r="S72" s="15" t="n">
-        <v>234769</v>
+        <v>170602</v>
       </c>
       <c r="T72" s="15" t="n">
-        <v>170602</v>
+        <v>132963</v>
       </c>
       <c r="U72" s="15" t="n">
-        <v>132963</v>
+        <v>139114</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>139114</v>
+        <v>202592</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>202592</v>
+        <v>164834</v>
       </c>
       <c r="X72" s="15" t="n">
-        <v>164834</v>
+        <v>156965</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>156965</v>
+        <v>132004</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>132004</v>
+        <v>215683</v>
       </c>
       <c r="AA72" s="15" t="n">
-        <v>215683</v>
+        <v>166812</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>166812</v>
+        <v>180774</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>180774</v>
+        <v>204939</v>
       </c>
       <c r="AD72" s="15" t="n">
-        <v>204939</v>
+        <v>306756</v>
       </c>
       <c r="AE72" s="15" t="n">
-        <v>306756</v>
+        <v>4158047</v>
       </c>
       <c r="AF72" s="15" t="n">
-        <v>4158047</v>
+        <v>206980</v>
       </c>
       <c r="AG72" s="15" t="n">
-        <v>206980</v>
+        <v>249141</v>
       </c>
       <c r="AH72" s="15" t="n">
-        <v>249141</v>
+        <v>272161</v>
       </c>
       <c r="AI72" s="15" t="n">
-        <v>272161</v>
+        <v>247843</v>
       </c>
       <c r="AJ72" s="15" t="n">
-        <v>247843</v>
+        <v>265013</v>
       </c>
       <c r="AK72" s="15" t="n">
-        <v>265013</v>
-      </c>
-      <c r="AL72" s="15" t="n">
         <v>260441</v>
       </c>
+      <c r="AL72" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="AM72" s="15" t="s">
         <v>66</v>
       </c>
@@ -10975,11 +10975,11 @@
       <c r="AZ72" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BA72" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB72" s="15" t="n">
+      <c r="BA72" s="15" t="n">
         <v>900000</v>
+      </c>
+      <c r="BB72" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10991,154 +10991,154 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>33299</v>
+        <v>30960</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>30960</v>
+        <v>42715</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>42715</v>
+        <v>41855</v>
       </c>
       <c r="H73" s="16" t="n">
-        <v>41855</v>
+        <v>40984</v>
       </c>
       <c r="I73" s="16" t="n">
-        <v>40984</v>
+        <v>45930</v>
       </c>
       <c r="J73" s="16" t="n">
-        <v>45930</v>
+        <v>42866</v>
       </c>
       <c r="K73" s="16" t="n">
-        <v>42866</v>
+        <v>42684</v>
       </c>
       <c r="L73" s="16" t="n">
-        <v>42684</v>
+        <v>39732</v>
       </c>
       <c r="M73" s="16" t="n">
-        <v>39732</v>
+        <v>45163</v>
       </c>
       <c r="N73" s="16" t="n">
-        <v>45163</v>
+        <v>41530</v>
       </c>
       <c r="O73" s="16" t="n">
-        <v>41530</v>
+        <v>42148</v>
       </c>
       <c r="P73" s="16" t="n">
-        <v>42148</v>
+        <v>41100</v>
       </c>
       <c r="Q73" s="16" t="n">
-        <v>41100</v>
+        <v>31600</v>
       </c>
       <c r="R73" s="16" t="n">
-        <v>31600</v>
+        <v>43529</v>
       </c>
       <c r="S73" s="16" t="n">
-        <v>43529</v>
+        <v>44646</v>
       </c>
       <c r="T73" s="16" t="n">
-        <v>44646</v>
+        <v>47698</v>
       </c>
       <c r="U73" s="16" t="n">
-        <v>47698</v>
+        <v>65329</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>65329</v>
+        <v>45916</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>45916</v>
+        <v>53878</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>53878</v>
+        <v>64947</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>64947</v>
+        <v>65248</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>65248</v>
+        <v>70451</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>70451</v>
+        <v>51332</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>51332</v>
+        <v>47642</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>47642</v>
+        <v>58321429</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>58321429</v>
+        <v>443727</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>443727</v>
+        <v>65484</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>65484</v>
+        <v>51250</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>51250</v>
+        <v>58480</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>58480</v>
+        <v>146367</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>146367</v>
+        <v>101819</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>101819</v>
+        <v>52318</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>52318</v>
+        <v>70504</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>70504</v>
+        <v>66361</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>66361</v>
+        <v>94645</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>94645</v>
+        <v>83486</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>83486</v>
+        <v>94459</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>94459</v>
+        <v>135412</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>135412</v>
+        <v>102282</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>102282</v>
+        <v>76796</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>76796</v>
+        <v>96932</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>96932</v>
+        <v>88780</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>88780</v>
+        <v>99798</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>99798</v>
+        <v>105344</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>105344</v>
+        <v>103212</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>103212</v>
+        <v>106123</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>106123</v>
+        <v>138917</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>138917</v>
+        <v>110739</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>110739</v>
-      </c>
-      <c r="BB73" s="16" t="n">
         <v>110003</v>
+      </c>
+      <c r="BB73" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,154 +11150,154 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>123727</v>
+        <v>106531</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>106531</v>
+        <v>172856</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>172856</v>
+        <v>288831</v>
       </c>
       <c r="H74" s="15" t="n">
-        <v>288831</v>
+        <v>386558</v>
       </c>
       <c r="I74" s="15" t="n">
-        <v>386558</v>
+        <v>209992</v>
       </c>
       <c r="J74" s="15" t="n">
-        <v>209992</v>
+        <v>216684</v>
       </c>
       <c r="K74" s="15" t="n">
-        <v>216684</v>
+        <v>226639</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>226639</v>
+        <v>536531</v>
       </c>
       <c r="M74" s="15" t="n">
-        <v>536531</v>
+        <v>419375</v>
       </c>
       <c r="N74" s="15" t="n">
-        <v>419375</v>
+        <v>222654</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>222654</v>
+        <v>182539</v>
       </c>
       <c r="P74" s="15" t="n">
-        <v>182539</v>
+        <v>306755</v>
       </c>
       <c r="Q74" s="15" t="n">
-        <v>306755</v>
+        <v>250543</v>
       </c>
       <c r="R74" s="15" t="n">
-        <v>250543</v>
+        <v>676525</v>
       </c>
       <c r="S74" s="15" t="n">
-        <v>676525</v>
+        <v>332883</v>
       </c>
       <c r="T74" s="15" t="n">
-        <v>332883</v>
+        <v>225450</v>
       </c>
       <c r="U74" s="15" t="n">
-        <v>225450</v>
+        <v>234687</v>
       </c>
       <c r="V74" s="15" t="n">
-        <v>234687</v>
+        <v>668653</v>
       </c>
       <c r="W74" s="15" t="n">
-        <v>668653</v>
+        <v>347462</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>347462</v>
+        <v>452775</v>
       </c>
       <c r="Y74" s="15" t="n">
-        <v>452775</v>
+        <v>256351</v>
       </c>
       <c r="Z74" s="15" t="n">
-        <v>256351</v>
+        <v>360639</v>
       </c>
       <c r="AA74" s="15" t="n">
-        <v>360639</v>
+        <v>256903</v>
       </c>
       <c r="AB74" s="15" t="n">
-        <v>256903</v>
+        <v>315171</v>
       </c>
       <c r="AC74" s="15" t="n">
-        <v>315171</v>
+        <v>809310</v>
       </c>
       <c r="AD74" s="15" t="n">
-        <v>809310</v>
+        <v>846836</v>
       </c>
       <c r="AE74" s="15" t="n">
-        <v>846836</v>
+        <v>498284</v>
       </c>
       <c r="AF74" s="15" t="n">
-        <v>498284</v>
+        <v>381609</v>
       </c>
       <c r="AG74" s="15" t="n">
-        <v>381609</v>
+        <v>311468</v>
       </c>
       <c r="AH74" s="15" t="n">
-        <v>311468</v>
+        <v>544669</v>
       </c>
       <c r="AI74" s="15" t="n">
-        <v>544669</v>
+        <v>563121</v>
       </c>
       <c r="AJ74" s="15" t="n">
-        <v>563121</v>
+        <v>418537</v>
       </c>
       <c r="AK74" s="15" t="n">
-        <v>418537</v>
+        <v>491566</v>
       </c>
       <c r="AL74" s="15" t="n">
-        <v>491566</v>
+        <v>573832</v>
       </c>
       <c r="AM74" s="15" t="n">
-        <v>573832</v>
+        <v>642896</v>
       </c>
       <c r="AN74" s="15" t="n">
-        <v>642896</v>
+        <v>460992</v>
       </c>
       <c r="AO74" s="15" t="n">
-        <v>460992</v>
+        <v>610007</v>
       </c>
       <c r="AP74" s="15" t="n">
-        <v>610007</v>
+        <v>657301</v>
       </c>
       <c r="AQ74" s="15" t="n">
-        <v>657301</v>
+        <v>747362</v>
       </c>
       <c r="AR74" s="15" t="n">
-        <v>747362</v>
+        <v>608162</v>
       </c>
       <c r="AS74" s="15" t="n">
-        <v>608162</v>
+        <v>669296</v>
       </c>
       <c r="AT74" s="15" t="n">
-        <v>669296</v>
+        <v>1035676</v>
       </c>
       <c r="AU74" s="15" t="n">
-        <v>1035676</v>
+        <v>1063559</v>
       </c>
       <c r="AV74" s="15" t="n">
-        <v>1063559</v>
+        <v>666414</v>
       </c>
       <c r="AW74" s="15" t="n">
-        <v>666414</v>
+        <v>565175</v>
       </c>
       <c r="AX74" s="15" t="n">
-        <v>565175</v>
+        <v>616518</v>
       </c>
       <c r="AY74" s="15" t="n">
-        <v>616518</v>
+        <v>1000245</v>
       </c>
       <c r="AZ74" s="15" t="n">
-        <v>1000245</v>
+        <v>933380</v>
       </c>
       <c r="BA74" s="15" t="n">
-        <v>933380</v>
+        <v>770537</v>
       </c>
       <c r="BB74" s="15" t="n">
-        <v>770537</v>
+        <v>825147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11309,154 +11309,154 @@
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="n">
-        <v>113536</v>
+        <v>88027</v>
       </c>
       <c r="F75" s="16" t="n">
-        <v>88027</v>
+        <v>105595</v>
       </c>
       <c r="G75" s="16" t="n">
-        <v>105595</v>
+        <v>105498</v>
       </c>
       <c r="H75" s="16" t="n">
-        <v>105498</v>
+        <v>96755</v>
       </c>
       <c r="I75" s="16" t="n">
-        <v>96755</v>
+        <v>91682</v>
       </c>
       <c r="J75" s="16" t="n">
-        <v>91682</v>
+        <v>121411</v>
       </c>
       <c r="K75" s="16" t="n">
-        <v>121411</v>
+        <v>141466</v>
       </c>
       <c r="L75" s="16" t="n">
-        <v>141466</v>
+        <v>138522</v>
       </c>
       <c r="M75" s="16" t="n">
-        <v>138522</v>
+        <v>117535</v>
       </c>
       <c r="N75" s="16" t="n">
-        <v>117535</v>
+        <v>107629</v>
       </c>
       <c r="O75" s="16" t="n">
-        <v>107629</v>
+        <v>152930</v>
       </c>
       <c r="P75" s="16" t="n">
-        <v>152930</v>
+        <v>126617</v>
       </c>
       <c r="Q75" s="16" t="n">
-        <v>126617</v>
+        <v>116045</v>
       </c>
       <c r="R75" s="16" t="n">
-        <v>116045</v>
+        <v>111867</v>
       </c>
       <c r="S75" s="16" t="n">
-        <v>111867</v>
+        <v>133194</v>
       </c>
       <c r="T75" s="16" t="n">
-        <v>133194</v>
+        <v>130758</v>
       </c>
       <c r="U75" s="16" t="n">
-        <v>130758</v>
+        <v>1544308</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>1544308</v>
+        <v>113904</v>
       </c>
       <c r="W75" s="16" t="n">
-        <v>113904</v>
+        <v>134863</v>
       </c>
       <c r="X75" s="16" t="n">
-        <v>134863</v>
+        <v>1300212</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>1300212</v>
+        <v>148296</v>
       </c>
       <c r="Z75" s="16" t="n">
-        <v>148296</v>
+        <v>167008</v>
       </c>
       <c r="AA75" s="16" t="n">
-        <v>167008</v>
+        <v>179185</v>
       </c>
       <c r="AB75" s="16" t="n">
-        <v>179185</v>
+        <v>137429</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>137429</v>
+        <v>207137</v>
       </c>
       <c r="AD75" s="16" t="n">
-        <v>207137</v>
+        <v>180848</v>
       </c>
       <c r="AE75" s="16" t="n">
-        <v>180848</v>
+        <v>154325</v>
       </c>
       <c r="AF75" s="16" t="n">
-        <v>154325</v>
+        <v>173089</v>
       </c>
       <c r="AG75" s="16" t="n">
-        <v>173089</v>
+        <v>204631</v>
       </c>
       <c r="AH75" s="16" t="n">
-        <v>204631</v>
+        <v>207133</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>207133</v>
+        <v>172191</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>172191</v>
+        <v>259636</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>259636</v>
+        <v>193469</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>193469</v>
+        <v>213356</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>213356</v>
+        <v>222172</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>222172</v>
+        <v>256902</v>
       </c>
       <c r="AO75" s="16" t="n">
-        <v>256902</v>
+        <v>115546</v>
       </c>
       <c r="AP75" s="16" t="n">
-        <v>115546</v>
+        <v>331316</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>331316</v>
+        <v>237369</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>237369</v>
+        <v>243934</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>243934</v>
+        <v>285534</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>285534</v>
+        <v>332830</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>332830</v>
+        <v>335233</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>335233</v>
+        <v>340686</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>340686</v>
+        <v>325904</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>325904</v>
+        <v>381280</v>
       </c>
       <c r="AY75" s="16" t="n">
-        <v>381280</v>
+        <v>385052</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>385052</v>
+        <v>364198</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>364198</v>
+        <v>462900</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>462900</v>
+        <v>373807</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11468,154 +11468,154 @@
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="n">
-        <v>56616</v>
+        <v>68904</v>
       </c>
       <c r="F76" s="15" t="n">
-        <v>68904</v>
+        <v>83535</v>
       </c>
       <c r="G76" s="15" t="n">
-        <v>83535</v>
+        <v>37636</v>
       </c>
       <c r="H76" s="15" t="n">
-        <v>37636</v>
+        <v>46134</v>
       </c>
       <c r="I76" s="15" t="n">
-        <v>46134</v>
+        <v>55703</v>
       </c>
       <c r="J76" s="15" t="n">
-        <v>55703</v>
+        <v>55643</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>55643</v>
+        <v>53264</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>53264</v>
+        <v>56645</v>
       </c>
       <c r="M76" s="15" t="n">
-        <v>56645</v>
+        <v>85038</v>
       </c>
       <c r="N76" s="15" t="n">
-        <v>85038</v>
+        <v>46446</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>46446</v>
+        <v>72627</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>72627</v>
+        <v>55977</v>
       </c>
       <c r="Q76" s="15" t="n">
-        <v>55977</v>
+        <v>43236</v>
       </c>
       <c r="R76" s="15" t="n">
-        <v>43236</v>
+        <v>83701</v>
       </c>
       <c r="S76" s="15" t="n">
-        <v>83701</v>
+        <v>94050</v>
       </c>
       <c r="T76" s="15" t="n">
-        <v>94050</v>
+        <v>84753</v>
       </c>
       <c r="U76" s="15" t="n">
-        <v>84753</v>
+        <v>860774</v>
       </c>
       <c r="V76" s="15" t="n">
-        <v>860774</v>
+        <v>49903</v>
       </c>
       <c r="W76" s="15" t="n">
-        <v>49903</v>
+        <v>109754</v>
       </c>
       <c r="X76" s="15" t="n">
-        <v>109754</v>
+        <v>74290</v>
       </c>
       <c r="Y76" s="15" t="n">
-        <v>74290</v>
+        <v>116391</v>
       </c>
       <c r="Z76" s="15" t="n">
-        <v>116391</v>
+        <v>63240</v>
       </c>
       <c r="AA76" s="15" t="n">
-        <v>63240</v>
+        <v>96539</v>
       </c>
       <c r="AB76" s="15" t="n">
-        <v>96539</v>
+        <v>50994</v>
       </c>
       <c r="AC76" s="15" t="n">
-        <v>50994</v>
+        <v>3353667</v>
       </c>
       <c r="AD76" s="15" t="n">
-        <v>3353667</v>
+        <v>333916</v>
       </c>
       <c r="AE76" s="15" t="n">
-        <v>333916</v>
+        <v>128938</v>
       </c>
       <c r="AF76" s="15" t="n">
-        <v>128938</v>
+        <v>112858</v>
       </c>
       <c r="AG76" s="15" t="n">
-        <v>112858</v>
+        <v>106641</v>
       </c>
       <c r="AH76" s="15" t="n">
-        <v>106641</v>
+        <v>112916</v>
       </c>
       <c r="AI76" s="15" t="n">
-        <v>112916</v>
+        <v>121565</v>
       </c>
       <c r="AJ76" s="15" t="n">
-        <v>121565</v>
+        <v>78014</v>
       </c>
       <c r="AK76" s="15" t="n">
-        <v>78014</v>
+        <v>102626</v>
       </c>
       <c r="AL76" s="15" t="n">
-        <v>102626</v>
+        <v>107089</v>
       </c>
       <c r="AM76" s="15" t="n">
-        <v>107089</v>
+        <v>92261</v>
       </c>
       <c r="AN76" s="15" t="n">
-        <v>92261</v>
+        <v>138377</v>
       </c>
       <c r="AO76" s="15" t="n">
-        <v>138377</v>
+        <v>105739</v>
       </c>
       <c r="AP76" s="15" t="n">
-        <v>105739</v>
+        <v>90238</v>
       </c>
       <c r="AQ76" s="15" t="n">
-        <v>90238</v>
+        <v>91199</v>
       </c>
       <c r="AR76" s="15" t="n">
-        <v>91199</v>
+        <v>73461</v>
       </c>
       <c r="AS76" s="15" t="n">
-        <v>73461</v>
+        <v>120857</v>
       </c>
       <c r="AT76" s="15" t="n">
-        <v>120857</v>
+        <v>91367</v>
       </c>
       <c r="AU76" s="15" t="n">
-        <v>91367</v>
+        <v>108698</v>
       </c>
       <c r="AV76" s="15" t="n">
-        <v>108698</v>
+        <v>94800</v>
       </c>
       <c r="AW76" s="15" t="n">
-        <v>94800</v>
+        <v>119774</v>
       </c>
       <c r="AX76" s="15" t="n">
-        <v>119774</v>
+        <v>131471</v>
       </c>
       <c r="AY76" s="15" t="n">
-        <v>131471</v>
+        <v>165378</v>
       </c>
       <c r="AZ76" s="15" t="n">
-        <v>165378</v>
+        <v>142697</v>
       </c>
       <c r="BA76" s="15" t="n">
-        <v>142697</v>
+        <v>152606</v>
       </c>
       <c r="BB76" s="15" t="n">
-        <v>152606</v>
+        <v>179274</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11627,154 +11627,154 @@
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="n">
-        <v>57369</v>
+        <v>0</v>
       </c>
       <c r="F77" s="16" t="n">
-        <v>0</v>
+        <v>146206</v>
       </c>
       <c r="G77" s="16" t="n">
-        <v>146206</v>
+        <v>40699</v>
       </c>
       <c r="H77" s="16" t="n">
-        <v>40699</v>
+        <v>154425</v>
       </c>
       <c r="I77" s="16" t="n">
-        <v>154425</v>
+        <v>105612</v>
       </c>
       <c r="J77" s="16" t="n">
-        <v>105612</v>
+        <v>138033</v>
       </c>
       <c r="K77" s="16" t="n">
-        <v>138033</v>
+        <v>239669</v>
       </c>
       <c r="L77" s="16" t="n">
-        <v>239669</v>
+        <v>207734</v>
       </c>
       <c r="M77" s="16" t="n">
-        <v>207734</v>
+        <v>185243</v>
       </c>
       <c r="N77" s="16" t="n">
-        <v>185243</v>
+        <v>170227</v>
       </c>
       <c r="O77" s="16" t="n">
-        <v>170227</v>
+        <v>121777</v>
       </c>
       <c r="P77" s="16" t="n">
-        <v>121777</v>
+        <v>161625</v>
       </c>
       <c r="Q77" s="16" t="n">
-        <v>161625</v>
+        <v>100790</v>
       </c>
       <c r="R77" s="16" t="n">
-        <v>100790</v>
+        <v>207418</v>
       </c>
       <c r="S77" s="16" t="n">
-        <v>207418</v>
+        <v>124150</v>
       </c>
       <c r="T77" s="16" t="n">
-        <v>124150</v>
+        <v>211766</v>
       </c>
       <c r="U77" s="16" t="n">
-        <v>211766</v>
+        <v>854702</v>
       </c>
       <c r="V77" s="16" t="n">
-        <v>854702</v>
+        <v>773694</v>
       </c>
       <c r="W77" s="16" t="n">
-        <v>773694</v>
+        <v>552779</v>
       </c>
       <c r="X77" s="16" t="n">
-        <v>552779</v>
+        <v>442721</v>
       </c>
       <c r="Y77" s="16" t="n">
-        <v>442721</v>
+        <v>500064</v>
       </c>
       <c r="Z77" s="16" t="n">
-        <v>500064</v>
+        <v>410596</v>
       </c>
       <c r="AA77" s="16" t="n">
-        <v>410596</v>
+        <v>433865</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>433865</v>
+        <v>409956</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>409956</v>
+        <v>380279</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>380279</v>
+        <v>595062</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>595062</v>
+        <v>452416</v>
       </c>
       <c r="AF77" s="16" t="n">
-        <v>452416</v>
+        <v>654264</v>
       </c>
       <c r="AG77" s="16" t="n">
-        <v>654264</v>
+        <v>817256</v>
       </c>
       <c r="AH77" s="16" t="n">
-        <v>817256</v>
+        <v>719974</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>719974</v>
+        <v>665945</v>
       </c>
       <c r="AJ77" s="16" t="n">
-        <v>665945</v>
+        <v>880828</v>
       </c>
       <c r="AK77" s="16" t="n">
-        <v>880828</v>
+        <v>522269</v>
       </c>
       <c r="AL77" s="16" t="n">
-        <v>522269</v>
+        <v>531583</v>
       </c>
       <c r="AM77" s="16" t="n">
-        <v>531583</v>
+        <v>496960</v>
       </c>
       <c r="AN77" s="16" t="n">
-        <v>496960</v>
+        <v>1107260</v>
       </c>
       <c r="AO77" s="16" t="n">
-        <v>1107260</v>
+        <v>850548</v>
       </c>
       <c r="AP77" s="16" t="n">
-        <v>850548</v>
+        <v>541969</v>
       </c>
       <c r="AQ77" s="16" t="n">
-        <v>541969</v>
+        <v>653024</v>
       </c>
       <c r="AR77" s="16" t="n">
-        <v>653024</v>
+        <v>659998</v>
       </c>
       <c r="AS77" s="16" t="n">
-        <v>659998</v>
+        <v>657901</v>
       </c>
       <c r="AT77" s="16" t="n">
-        <v>657901</v>
+        <v>759243</v>
       </c>
       <c r="AU77" s="16" t="n">
-        <v>759243</v>
+        <v>726501</v>
       </c>
       <c r="AV77" s="16" t="n">
-        <v>726501</v>
+        <v>907304</v>
       </c>
       <c r="AW77" s="16" t="n">
-        <v>907304</v>
+        <v>1020469</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>1020469</v>
+        <v>401521</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>401521</v>
+        <v>1765997</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>1765997</v>
+        <v>480187</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>480187</v>
+        <v>787867</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>787867</v>
+        <v>749871</v>
       </c>
     </row>
   </sheetData>
